--- a/raw_data/20200818_saline/20200818_Sensor3_Test_71.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor3_Test_71.xlsx
@@ -1,508 +1,924 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36A579EA-7F70-4958-9585-ECD5DBFA9935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>63557.841990</v>
+        <v>63557.841990000001</v>
       </c>
       <c r="B2" s="1">
-        <v>17.654956</v>
+        <v>17.654955999999999</v>
       </c>
       <c r="C2" s="1">
-        <v>1144.290000</v>
+        <v>1144.29</v>
       </c>
       <c r="D2" s="1">
-        <v>-261.355000</v>
+        <v>-261.35500000000002</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>63568.102233</v>
+        <v>63568.102232999998</v>
       </c>
       <c r="G2" s="1">
-        <v>17.657806</v>
+        <v>17.657806000000001</v>
       </c>
       <c r="H2" s="1">
-        <v>1166.670000</v>
+        <v>1166.67</v>
       </c>
       <c r="I2" s="1">
-        <v>-220.102000</v>
+        <v>-220.102</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>63578.290555</v>
@@ -511,270 +927,270 @@
         <v>17.660636</v>
       </c>
       <c r="M2" s="1">
-        <v>1195.540000</v>
+        <v>1195.54</v>
       </c>
       <c r="N2" s="1">
-        <v>-152.912000</v>
+        <v>-152.91200000000001</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>63588.420879</v>
+        <v>63588.420878999998</v>
       </c>
       <c r="Q2" s="1">
-        <v>17.663450</v>
+        <v>17.663450000000001</v>
       </c>
       <c r="R2" s="1">
-        <v>1203.450000</v>
+        <v>1203.45</v>
       </c>
       <c r="S2" s="1">
-        <v>-130.567000</v>
+        <v>-130.56700000000001</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>63598.689023</v>
+        <v>63598.689022999999</v>
       </c>
       <c r="V2" s="1">
-        <v>17.666303</v>
+        <v>17.666302999999999</v>
       </c>
       <c r="W2" s="1">
-        <v>1211.040000</v>
+        <v>1211.04</v>
       </c>
       <c r="X2" s="1">
-        <v>-109.324000</v>
+        <v>-109.324</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>63608.788066</v>
+        <v>63608.788066000001</v>
       </c>
       <c r="AA2" s="1">
-        <v>17.669108</v>
+        <v>17.669108000000001</v>
       </c>
       <c r="AB2" s="1">
-        <v>1218.760000</v>
+        <v>1218.76</v>
       </c>
       <c r="AC2" s="1">
-        <v>-91.774100</v>
+        <v>-91.774100000000004</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>63619.383108</v>
+        <v>63619.383108000002</v>
       </c>
       <c r="AF2" s="1">
         <v>17.672051</v>
       </c>
       <c r="AG2" s="1">
-        <v>1223.440000</v>
+        <v>1223.44</v>
       </c>
       <c r="AH2" s="1">
-        <v>-87.081900</v>
+        <v>-87.081900000000005</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>63629.858614</v>
+        <v>63629.858613999997</v>
       </c>
       <c r="AK2" s="1">
         <v>17.674961</v>
       </c>
       <c r="AL2" s="1">
-        <v>1230.630000</v>
+        <v>1230.6300000000001</v>
       </c>
       <c r="AM2" s="1">
-        <v>-90.265500</v>
+        <v>-90.265500000000003</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>63640.409016</v>
+        <v>63640.409015999998</v>
       </c>
       <c r="AP2" s="1">
-        <v>17.677891</v>
+        <v>17.677890999999999</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1238.610000</v>
+        <v>1238.6099999999999</v>
       </c>
       <c r="AR2" s="1">
-        <v>-102.129000</v>
+        <v>-102.129</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>63651.441566</v>
+        <v>63651.441566000001</v>
       </c>
       <c r="AU2" s="1">
-        <v>17.680956</v>
+        <v>17.680955999999998</v>
       </c>
       <c r="AV2" s="1">
-        <v>1248.720000</v>
+        <v>1248.72</v>
       </c>
       <c r="AW2" s="1">
-        <v>-121.479000</v>
+        <v>-121.479</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>63662.598043</v>
+        <v>63662.598042999998</v>
       </c>
       <c r="AZ2" s="1">
-        <v>17.684055</v>
+        <v>17.684055000000001</v>
       </c>
       <c r="BA2" s="1">
-        <v>1257.240000</v>
+        <v>1257.24</v>
       </c>
       <c r="BB2" s="1">
-        <v>-138.965000</v>
+        <v>-138.965</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>63673.574508</v>
+        <v>63673.574507999998</v>
       </c>
       <c r="BE2" s="1">
-        <v>17.687104</v>
+        <v>17.687104000000001</v>
       </c>
       <c r="BF2" s="1">
-        <v>1297.900000</v>
+        <v>1297.9000000000001</v>
       </c>
       <c r="BG2" s="1">
-        <v>-220.902000</v>
+        <v>-220.90199999999999</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>63684.889246</v>
+        <v>63684.889245999999</v>
       </c>
       <c r="BJ2" s="1">
-        <v>17.690247</v>
+        <v>17.690246999999999</v>
       </c>
       <c r="BK2" s="1">
-        <v>1368.330000</v>
+        <v>1368.33</v>
       </c>
       <c r="BL2" s="1">
-        <v>-356.835000</v>
+        <v>-356.83499999999998</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>63696.273424</v>
+        <v>63696.273423999999</v>
       </c>
       <c r="BO2" s="1">
-        <v>17.693409</v>
+        <v>17.693408999999999</v>
       </c>
       <c r="BP2" s="1">
-        <v>1483.830000</v>
+        <v>1483.83</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-577.515000</v>
+        <v>-577.51499999999999</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
         <v>63706.996928</v>
       </c>
       <c r="BT2" s="1">
-        <v>17.696388</v>
+        <v>17.696387999999999</v>
       </c>
       <c r="BU2" s="1">
-        <v>1617.100000</v>
+        <v>1617.1</v>
       </c>
       <c r="BV2" s="1">
-        <v>-825.372000</v>
+        <v>-825.37199999999996</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>63718.161873</v>
+        <v>63718.161872999997</v>
       </c>
       <c r="BY2" s="1">
         <v>17.699489</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1770.240000</v>
+        <v>1770.24</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1094.830000</v>
+        <v>-1094.83</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>63729.124948</v>
+        <v>63729.124947999997</v>
       </c>
       <c r="CD2" s="1">
-        <v>17.702535</v>
+        <v>17.702535000000001</v>
       </c>
       <c r="CE2" s="1">
-        <v>2189.150000</v>
+        <v>2189.15</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1745.240000</v>
+        <v>-1745.24</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>63557.954087</v>
+        <v>63557.954086999998</v>
       </c>
       <c r="B3" s="1">
-        <v>17.654987</v>
+        <v>17.654986999999998</v>
       </c>
       <c r="C3" s="1">
-        <v>1144.630000</v>
+        <v>1144.6300000000001</v>
       </c>
       <c r="D3" s="1">
-        <v>-261.340000</v>
+        <v>-261.33999999999997</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>63568.452407</v>
+        <v>63568.452406999997</v>
       </c>
       <c r="G3" s="1">
-        <v>17.657903</v>
+        <v>17.657903000000001</v>
       </c>
       <c r="H3" s="1">
-        <v>1167.180000</v>
+        <v>1167.18</v>
       </c>
       <c r="I3" s="1">
-        <v>-219.746000</v>
+        <v>-219.74600000000001</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>63578.639277</v>
+        <v>63578.639277000002</v>
       </c>
       <c r="L3" s="1">
         <v>17.660733</v>
       </c>
       <c r="M3" s="1">
-        <v>1195.410000</v>
+        <v>1195.4100000000001</v>
       </c>
       <c r="N3" s="1">
-        <v>-152.959000</v>
+        <v>-152.959</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
         <v>63588.802764</v>
@@ -783,330 +1199,330 @@
         <v>17.663556</v>
       </c>
       <c r="R3" s="1">
-        <v>1203.480000</v>
+        <v>1203.48</v>
       </c>
       <c r="S3" s="1">
-        <v>-130.539000</v>
+        <v>-130.53899999999999</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>63599.116577</v>
+        <v>63599.116577000001</v>
       </c>
       <c r="V3" s="1">
         <v>17.666421</v>
       </c>
       <c r="W3" s="1">
-        <v>1211.060000</v>
+        <v>1211.06</v>
       </c>
       <c r="X3" s="1">
-        <v>-109.457000</v>
+        <v>-109.45699999999999</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>63609.221569</v>
+        <v>63609.221569000001</v>
       </c>
       <c r="AA3" s="1">
         <v>17.669228</v>
       </c>
       <c r="AB3" s="1">
-        <v>1218.710000</v>
+        <v>1218.71</v>
       </c>
       <c r="AC3" s="1">
-        <v>-91.728800</v>
+        <v>-91.728800000000007</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>63619.777440</v>
+        <v>63619.777439999998</v>
       </c>
       <c r="AF3" s="1">
-        <v>17.672160</v>
+        <v>17.672160000000002</v>
       </c>
       <c r="AG3" s="1">
-        <v>1223.460000</v>
+        <v>1223.46</v>
       </c>
       <c r="AH3" s="1">
-        <v>-87.043600</v>
+        <v>-87.043599999999998</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>63630.227234</v>
+        <v>63630.227233999998</v>
       </c>
       <c r="AK3" s="1">
-        <v>17.675063</v>
+        <v>17.675063000000002</v>
       </c>
       <c r="AL3" s="1">
-        <v>1230.610000</v>
+        <v>1230.6099999999999</v>
       </c>
       <c r="AM3" s="1">
-        <v>-90.244600</v>
+        <v>-90.244600000000005</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>63640.793944</v>
+        <v>63640.793943999997</v>
       </c>
       <c r="AP3" s="1">
-        <v>17.677998</v>
+        <v>17.677997999999999</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1238.620000</v>
+        <v>1238.6199999999999</v>
       </c>
       <c r="AR3" s="1">
-        <v>-102.138000</v>
+        <v>-102.13800000000001</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>63651.806090</v>
+        <v>63651.806089999998</v>
       </c>
       <c r="AU3" s="1">
-        <v>17.681057</v>
+        <v>17.681056999999999</v>
       </c>
       <c r="AV3" s="1">
-        <v>1248.690000</v>
+        <v>1248.69</v>
       </c>
       <c r="AW3" s="1">
-        <v>-121.486000</v>
+        <v>-121.486</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>63663.330667</v>
+        <v>63663.330667000002</v>
       </c>
       <c r="AZ3" s="1">
-        <v>17.684259</v>
+        <v>17.684259000000001</v>
       </c>
       <c r="BA3" s="1">
-        <v>1257.260000</v>
+        <v>1257.26</v>
       </c>
       <c r="BB3" s="1">
-        <v>-138.959000</v>
+        <v>-138.959</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
         <v>63674.315531</v>
       </c>
       <c r="BE3" s="1">
-        <v>17.687310</v>
+        <v>17.68731</v>
       </c>
       <c r="BF3" s="1">
-        <v>1297.900000</v>
+        <v>1297.9000000000001</v>
       </c>
       <c r="BG3" s="1">
-        <v>-220.913000</v>
+        <v>-220.91300000000001</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>63685.303933</v>
+        <v>63685.303933000003</v>
       </c>
       <c r="BJ3" s="1">
         <v>17.690362</v>
       </c>
       <c r="BK3" s="1">
-        <v>1368.330000</v>
+        <v>1368.33</v>
       </c>
       <c r="BL3" s="1">
-        <v>-356.813000</v>
+        <v>-356.81299999999999</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>63696.662824</v>
+        <v>63696.662823999999</v>
       </c>
       <c r="BO3" s="1">
         <v>17.693517</v>
       </c>
       <c r="BP3" s="1">
-        <v>1483.770000</v>
+        <v>1483.77</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-577.504000</v>
+        <v>-577.50400000000002</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>63707.435433</v>
+        <v>63707.435432999999</v>
       </c>
       <c r="BT3" s="1">
-        <v>17.696510</v>
+        <v>17.69651</v>
       </c>
       <c r="BU3" s="1">
-        <v>1617.130000</v>
+        <v>1617.13</v>
       </c>
       <c r="BV3" s="1">
-        <v>-825.412000</v>
+        <v>-825.41200000000003</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>63718.940625</v>
+        <v>63718.940625000003</v>
       </c>
       <c r="BY3" s="1">
-        <v>17.699706</v>
+        <v>17.699705999999999</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1770.130000</v>
+        <v>1770.13</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1094.880000</v>
+        <v>-1094.8800000000001</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>63730.035604</v>
+        <v>63730.035603999997</v>
       </c>
       <c r="CD3" s="1">
-        <v>17.702788</v>
+        <v>17.702788000000002</v>
       </c>
       <c r="CE3" s="1">
-        <v>2190.210000</v>
+        <v>2190.21</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1743.380000</v>
+        <v>-1743.38</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>63558.293348</v>
+        <v>63558.293347999999</v>
       </c>
       <c r="B4" s="1">
-        <v>17.655081</v>
+        <v>17.655080999999999</v>
       </c>
       <c r="C4" s="1">
-        <v>1144.310000</v>
+        <v>1144.31</v>
       </c>
       <c r="D4" s="1">
-        <v>-261.128000</v>
+        <v>-261.12799999999999</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>63568.800103</v>
+        <v>63568.800103000001</v>
       </c>
       <c r="G4" s="1">
-        <v>17.658000</v>
+        <v>17.658000000000001</v>
       </c>
       <c r="H4" s="1">
-        <v>1166.600000</v>
+        <v>1166.5999999999999</v>
       </c>
       <c r="I4" s="1">
-        <v>-219.963000</v>
+        <v>-219.96299999999999</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>63578.980986</v>
+        <v>63578.980986000002</v>
       </c>
       <c r="L4" s="1">
-        <v>17.660828</v>
+        <v>17.660827999999999</v>
       </c>
       <c r="M4" s="1">
-        <v>1195.280000</v>
+        <v>1195.28</v>
       </c>
       <c r="N4" s="1">
-        <v>-152.828000</v>
+        <v>-152.828</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>63589.229820</v>
+        <v>63589.22982</v>
       </c>
       <c r="Q4" s="1">
-        <v>17.663675</v>
+        <v>17.663675000000001</v>
       </c>
       <c r="R4" s="1">
-        <v>1203.530000</v>
+        <v>1203.53</v>
       </c>
       <c r="S4" s="1">
-        <v>-130.539000</v>
+        <v>-130.53899999999999</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>63599.412190</v>
+        <v>63599.412190000003</v>
       </c>
       <c r="V4" s="1">
-        <v>17.666503</v>
+        <v>17.666502999999999</v>
       </c>
       <c r="W4" s="1">
-        <v>1211.120000</v>
+        <v>1211.1199999999999</v>
       </c>
       <c r="X4" s="1">
-        <v>-109.212000</v>
+        <v>-109.212</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>63609.552897</v>
+        <v>63609.552897000001</v>
       </c>
       <c r="AA4" s="1">
-        <v>17.669320</v>
+        <v>17.669319999999999</v>
       </c>
       <c r="AB4" s="1">
-        <v>1218.770000</v>
+        <v>1218.77</v>
       </c>
       <c r="AC4" s="1">
-        <v>-91.839700</v>
+        <v>-91.839699999999993</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>63620.118181</v>
+        <v>63620.118180999998</v>
       </c>
       <c r="AF4" s="1">
         <v>17.672255</v>
       </c>
       <c r="AG4" s="1">
-        <v>1223.300000</v>
+        <v>1223.3</v>
       </c>
       <c r="AH4" s="1">
-        <v>-87.432800</v>
+        <v>-87.4328</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>63630.575333</v>
+        <v>63630.575333000001</v>
       </c>
       <c r="AK4" s="1">
-        <v>17.675160</v>
+        <v>17.675160000000002</v>
       </c>
       <c r="AL4" s="1">
-        <v>1230.630000</v>
+        <v>1230.6300000000001</v>
       </c>
       <c r="AM4" s="1">
-        <v>-90.255300</v>
+        <v>-90.255300000000005</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
         <v>63641.155497</v>
@@ -1115,393 +1531,393 @@
         <v>17.678099</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1238.610000</v>
+        <v>1238.6099999999999</v>
       </c>
       <c r="AR4" s="1">
-        <v>-102.150000</v>
+        <v>-102.15</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>63652.535208</v>
+        <v>63652.535208000001</v>
       </c>
       <c r="AU4" s="1">
-        <v>17.681260</v>
+        <v>17.681260000000002</v>
       </c>
       <c r="AV4" s="1">
-        <v>1248.670000</v>
+        <v>1248.67</v>
       </c>
       <c r="AW4" s="1">
-        <v>-121.487000</v>
+        <v>-121.48699999999999</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>63663.708618</v>
+        <v>63663.708617999997</v>
       </c>
       <c r="AZ4" s="1">
-        <v>17.684364</v>
+        <v>17.684363999999999</v>
       </c>
       <c r="BA4" s="1">
-        <v>1257.240000</v>
+        <v>1257.24</v>
       </c>
       <c r="BB4" s="1">
-        <v>-138.988000</v>
+        <v>-138.988</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>63674.676620</v>
+        <v>63674.676619999998</v>
       </c>
       <c r="BE4" s="1">
-        <v>17.687410</v>
+        <v>17.68741</v>
       </c>
       <c r="BF4" s="1">
-        <v>1297.890000</v>
+        <v>1297.8900000000001</v>
       </c>
       <c r="BG4" s="1">
-        <v>-220.899000</v>
+        <v>-220.899</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>63685.676899</v>
+        <v>63685.676898999998</v>
       </c>
       <c r="BJ4" s="1">
-        <v>17.690466</v>
+        <v>17.690466000000001</v>
       </c>
       <c r="BK4" s="1">
-        <v>1368.330000</v>
+        <v>1368.33</v>
       </c>
       <c r="BL4" s="1">
-        <v>-356.850000</v>
+        <v>-356.85</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>63697.397885</v>
+        <v>63697.397884999998</v>
       </c>
       <c r="BO4" s="1">
-        <v>17.693722</v>
+        <v>17.693722000000001</v>
       </c>
       <c r="BP4" s="1">
-        <v>1483.840000</v>
+        <v>1483.84</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-577.466000</v>
+        <v>-577.46600000000001</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>63708.155118</v>
+        <v>63708.155118000002</v>
       </c>
       <c r="BT4" s="1">
-        <v>17.696710</v>
+        <v>17.696709999999999</v>
       </c>
       <c r="BU4" s="1">
-        <v>1617.270000</v>
+        <v>1617.27</v>
       </c>
       <c r="BV4" s="1">
-        <v>-825.513000</v>
+        <v>-825.51300000000003</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>63719.106786</v>
+        <v>63719.106785999997</v>
       </c>
       <c r="BY4" s="1">
         <v>17.699752</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1770.130000</v>
+        <v>1770.13</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1095.010000</v>
+        <v>-1095.01</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>63730.206724</v>
+        <v>63730.206724000003</v>
       </c>
       <c r="CD4" s="1">
         <v>17.702835</v>
       </c>
       <c r="CE4" s="1">
-        <v>2189.550000</v>
+        <v>2189.5500000000002</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1745.320000</v>
+        <v>-1745.32</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>63558.634100</v>
+        <v>63558.634100000003</v>
       </c>
       <c r="B5" s="1">
-        <v>17.655176</v>
+        <v>17.655176000000001</v>
       </c>
       <c r="C5" s="1">
-        <v>1144.310000</v>
+        <v>1144.31</v>
       </c>
       <c r="D5" s="1">
-        <v>-261.218000</v>
+        <v>-261.21800000000002</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>63569.226168</v>
+        <v>63569.226168000001</v>
       </c>
       <c r="G5" s="1">
-        <v>17.658118</v>
+        <v>17.658118000000002</v>
       </c>
       <c r="H5" s="1">
-        <v>1166.980000</v>
+        <v>1166.98</v>
       </c>
       <c r="I5" s="1">
-        <v>-219.412000</v>
+        <v>-219.41200000000001</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>63579.475502</v>
+        <v>63579.475502000001</v>
       </c>
       <c r="L5" s="1">
-        <v>17.660965</v>
+        <v>17.660965000000001</v>
       </c>
       <c r="M5" s="1">
-        <v>1195.480000</v>
+        <v>1195.48</v>
       </c>
       <c r="N5" s="1">
-        <v>-152.922000</v>
+        <v>-152.922</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>63589.523485</v>
+        <v>63589.523484999998</v>
       </c>
       <c r="Q5" s="1">
         <v>17.663757</v>
       </c>
       <c r="R5" s="1">
-        <v>1203.490000</v>
+        <v>1203.49</v>
       </c>
       <c r="S5" s="1">
-        <v>-130.600000</v>
+        <v>-130.6</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>63599.755422</v>
+        <v>63599.755422000002</v>
       </c>
       <c r="V5" s="1">
-        <v>17.666599</v>
+        <v>17.666599000000001</v>
       </c>
       <c r="W5" s="1">
-        <v>1211.010000</v>
+        <v>1211.01</v>
       </c>
       <c r="X5" s="1">
-        <v>-109.414000</v>
+        <v>-109.414</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>63609.899635</v>
+        <v>63609.899635000002</v>
       </c>
       <c r="AA5" s="1">
-        <v>17.669417</v>
+        <v>17.669416999999999</v>
       </c>
       <c r="AB5" s="1">
-        <v>1218.760000</v>
+        <v>1218.76</v>
       </c>
       <c r="AC5" s="1">
-        <v>-91.784400</v>
+        <v>-91.784400000000005</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
         <v>63620.460927</v>
       </c>
       <c r="AF5" s="1">
-        <v>17.672350</v>
+        <v>17.672350000000002</v>
       </c>
       <c r="AG5" s="1">
-        <v>1223.420000</v>
+        <v>1223.42</v>
       </c>
       <c r="AH5" s="1">
-        <v>-87.102200</v>
+        <v>-87.102199999999996</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>63631.270228</v>
+        <v>63631.270228000001</v>
       </c>
       <c r="AK5" s="1">
-        <v>17.675353</v>
+        <v>17.675353000000001</v>
       </c>
       <c r="AL5" s="1">
-        <v>1230.610000</v>
+        <v>1230.6099999999999</v>
       </c>
       <c r="AM5" s="1">
-        <v>-90.227100</v>
+        <v>-90.227099999999993</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>63641.884120</v>
+        <v>63641.884120000002</v>
       </c>
       <c r="AP5" s="1">
-        <v>17.678301</v>
+        <v>17.678301000000001</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1238.630000</v>
+        <v>1238.6300000000001</v>
       </c>
       <c r="AR5" s="1">
-        <v>-102.131000</v>
+        <v>-102.131</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>63652.921625</v>
+        <v>63652.921625000003</v>
       </c>
       <c r="AU5" s="1">
-        <v>17.681367</v>
+        <v>17.681367000000002</v>
       </c>
       <c r="AV5" s="1">
-        <v>1248.690000</v>
+        <v>1248.69</v>
       </c>
       <c r="AW5" s="1">
-        <v>-121.485000</v>
+        <v>-121.485</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>63664.064217</v>
+        <v>63664.064216999999</v>
       </c>
       <c r="AZ5" s="1">
         <v>17.684462</v>
       </c>
       <c r="BA5" s="1">
-        <v>1257.260000</v>
+        <v>1257.26</v>
       </c>
       <c r="BB5" s="1">
-        <v>-138.969000</v>
+        <v>-138.96899999999999</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>63675.038700</v>
+        <v>63675.038699999997</v>
       </c>
       <c r="BE5" s="1">
-        <v>17.687511</v>
+        <v>17.687511000000001</v>
       </c>
       <c r="BF5" s="1">
-        <v>1297.900000</v>
+        <v>1297.9000000000001</v>
       </c>
       <c r="BG5" s="1">
-        <v>-220.897000</v>
+        <v>-220.89699999999999</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>63686.365340</v>
+        <v>63686.365339999997</v>
       </c>
       <c r="BJ5" s="1">
-        <v>17.690657</v>
+        <v>17.690657000000002</v>
       </c>
       <c r="BK5" s="1">
-        <v>1368.320000</v>
+        <v>1368.32</v>
       </c>
       <c r="BL5" s="1">
-        <v>-356.847000</v>
+        <v>-356.84699999999998</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>63697.898848</v>
+        <v>63697.898847999997</v>
       </c>
       <c r="BO5" s="1">
-        <v>17.693861</v>
+        <v>17.693860999999998</v>
       </c>
       <c r="BP5" s="1">
-        <v>1483.780000</v>
+        <v>1483.78</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-577.533000</v>
+        <v>-577.53300000000002</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>63708.273136</v>
+        <v>63708.273136000003</v>
       </c>
       <c r="BT5" s="1">
-        <v>17.696743</v>
+        <v>17.696743000000001</v>
       </c>
       <c r="BU5" s="1">
-        <v>1617.330000</v>
+        <v>1617.33</v>
       </c>
       <c r="BV5" s="1">
-        <v>-825.520000</v>
+        <v>-825.52</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>63719.531345</v>
+        <v>63719.531345000003</v>
       </c>
       <c r="BY5" s="1">
-        <v>17.699870</v>
+        <v>17.699870000000001</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1770.160000</v>
+        <v>1770.16</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1095.030000</v>
+        <v>-1095.03</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>63730.730993</v>
+        <v>63730.730992999997</v>
       </c>
       <c r="CD5" s="1">
-        <v>17.702981</v>
+        <v>17.702981000000001</v>
       </c>
       <c r="CE5" s="1">
-        <v>2188.930000</v>
+        <v>2188.9299999999998</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1745.340000</v>
+        <v>-1745.34</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
         <v>63559.064132</v>
       </c>
@@ -1509,58 +1925,58 @@
         <v>17.655296</v>
       </c>
       <c r="C6" s="1">
-        <v>1144.600000</v>
+        <v>1144.5999999999999</v>
       </c>
       <c r="D6" s="1">
-        <v>-261.212000</v>
+        <v>-261.21199999999999</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>63569.501975</v>
+        <v>63569.501974999999</v>
       </c>
       <c r="G6" s="1">
-        <v>17.658195</v>
+        <v>17.658194999999999</v>
       </c>
       <c r="H6" s="1">
-        <v>1167.440000</v>
+        <v>1167.44</v>
       </c>
       <c r="I6" s="1">
-        <v>-219.567000</v>
+        <v>-219.56700000000001</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>63579.673898</v>
+        <v>63579.673898000001</v>
       </c>
       <c r="L6" s="1">
-        <v>17.661021</v>
+        <v>17.661021000000002</v>
       </c>
       <c r="M6" s="1">
-        <v>1195.270000</v>
+        <v>1195.27</v>
       </c>
       <c r="N6" s="1">
-        <v>-153.191000</v>
+        <v>-153.191</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>63589.873133</v>
+        <v>63589.873133000001</v>
       </c>
       <c r="Q6" s="1">
-        <v>17.663854</v>
+        <v>17.663854000000001</v>
       </c>
       <c r="R6" s="1">
-        <v>1203.540000</v>
+        <v>1203.54</v>
       </c>
       <c r="S6" s="1">
-        <v>-130.624000</v>
+        <v>-130.624</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
         <v>63600.097661</v>
@@ -1569,527 +1985,527 @@
         <v>17.666694</v>
       </c>
       <c r="W6" s="1">
-        <v>1211.160000</v>
+        <v>1211.1600000000001</v>
       </c>
       <c r="X6" s="1">
-        <v>-109.226000</v>
+        <v>-109.226</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
         <v>63610.252256</v>
       </c>
       <c r="AA6" s="1">
-        <v>17.669515</v>
+        <v>17.669515000000001</v>
       </c>
       <c r="AB6" s="1">
-        <v>1218.700000</v>
+        <v>1218.7</v>
       </c>
       <c r="AC6" s="1">
-        <v>-91.760400</v>
+        <v>-91.760400000000004</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>63621.149363</v>
+        <v>63621.149362999997</v>
       </c>
       <c r="AF6" s="1">
-        <v>17.672541</v>
+        <v>17.672540999999999</v>
       </c>
       <c r="AG6" s="1">
-        <v>1223.480000</v>
+        <v>1223.48</v>
       </c>
       <c r="AH6" s="1">
-        <v>-87.050500</v>
+        <v>-87.0505</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>63631.617442</v>
+        <v>63631.617442000002</v>
       </c>
       <c r="AK6" s="1">
         <v>17.675449</v>
       </c>
       <c r="AL6" s="1">
-        <v>1230.600000</v>
+        <v>1230.5999999999999</v>
       </c>
       <c r="AM6" s="1">
-        <v>-90.252200</v>
+        <v>-90.252200000000002</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>63642.263094</v>
+        <v>63642.263094000002</v>
       </c>
       <c r="AP6" s="1">
-        <v>17.678406</v>
+        <v>17.678405999999999</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1238.610000</v>
+        <v>1238.6099999999999</v>
       </c>
       <c r="AR6" s="1">
-        <v>-102.160000</v>
+        <v>-102.16</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>63653.285191</v>
+        <v>63653.285191000003</v>
       </c>
       <c r="AU6" s="1">
-        <v>17.681468</v>
+        <v>17.681467999999999</v>
       </c>
       <c r="AV6" s="1">
-        <v>1248.700000</v>
+        <v>1248.7</v>
       </c>
       <c r="AW6" s="1">
-        <v>-121.495000</v>
+        <v>-121.495</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>63664.738281</v>
+        <v>63664.738280999998</v>
       </c>
       <c r="AZ6" s="1">
-        <v>17.684650</v>
+        <v>17.684650000000001</v>
       </c>
       <c r="BA6" s="1">
-        <v>1257.240000</v>
+        <v>1257.24</v>
       </c>
       <c r="BB6" s="1">
-        <v>-138.969000</v>
+        <v>-138.96899999999999</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>63675.708299</v>
+        <v>63675.708298999998</v>
       </c>
       <c r="BE6" s="1">
         <v>17.687697</v>
       </c>
       <c r="BF6" s="1">
-        <v>1297.900000</v>
+        <v>1297.9000000000001</v>
       </c>
       <c r="BG6" s="1">
-        <v>-220.913000</v>
+        <v>-220.91300000000001</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>63686.805571</v>
+        <v>63686.805570999997</v>
       </c>
       <c r="BJ6" s="1">
-        <v>17.690779</v>
+        <v>17.690778999999999</v>
       </c>
       <c r="BK6" s="1">
-        <v>1368.360000</v>
+        <v>1368.36</v>
       </c>
       <c r="BL6" s="1">
-        <v>-356.843000</v>
+        <v>-356.84300000000002</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>63698.316444</v>
+        <v>63698.316443999996</v>
       </c>
       <c r="BO6" s="1">
         <v>17.693977</v>
       </c>
       <c r="BP6" s="1">
-        <v>1483.860000</v>
+        <v>1483.86</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-577.524000</v>
+        <v>-577.524</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>63708.710641</v>
+        <v>63708.710640999998</v>
       </c>
       <c r="BT6" s="1">
-        <v>17.696864</v>
+        <v>17.696864000000001</v>
       </c>
       <c r="BU6" s="1">
-        <v>1617.380000</v>
+        <v>1617.38</v>
       </c>
       <c r="BV6" s="1">
-        <v>-825.705000</v>
+        <v>-825.70500000000004</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>63719.977728</v>
+        <v>63719.977727999998</v>
       </c>
       <c r="BY6" s="1">
         <v>17.699994</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1770.260000</v>
+        <v>1770.26</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1094.980000</v>
+        <v>-1094.98</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>63731.250304</v>
+        <v>63731.250304000001</v>
       </c>
       <c r="CD6" s="1">
         <v>17.703125</v>
       </c>
       <c r="CE6" s="1">
-        <v>2190.350000</v>
+        <v>2190.35</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1743.880000</v>
+        <v>-1743.88</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>63559.352309</v>
+        <v>63559.352309000002</v>
       </c>
       <c r="B7" s="1">
         <v>17.655376</v>
       </c>
       <c r="C7" s="1">
-        <v>1144.290000</v>
+        <v>1144.29</v>
       </c>
       <c r="D7" s="1">
-        <v>-261.138000</v>
+        <v>-261.13799999999998</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>63569.847157</v>
+        <v>63569.847156999997</v>
       </c>
       <c r="G7" s="1">
-        <v>17.658291</v>
+        <v>17.658290999999998</v>
       </c>
       <c r="H7" s="1">
-        <v>1166.840000</v>
+        <v>1166.8399999999999</v>
       </c>
       <c r="I7" s="1">
-        <v>-218.966000</v>
+        <v>-218.96600000000001</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>63580.019114</v>
+        <v>63580.019114000002</v>
       </c>
       <c r="L7" s="1">
         <v>17.661116</v>
       </c>
       <c r="M7" s="1">
-        <v>1195.110000</v>
+        <v>1195.1099999999999</v>
       </c>
       <c r="N7" s="1">
-        <v>-153.132000</v>
+        <v>-153.13200000000001</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
         <v>63590.223802</v>
       </c>
       <c r="Q7" s="1">
-        <v>17.663951</v>
+        <v>17.663951000000001</v>
       </c>
       <c r="R7" s="1">
-        <v>1203.410000</v>
+        <v>1203.4100000000001</v>
       </c>
       <c r="S7" s="1">
-        <v>-130.579000</v>
+        <v>-130.57900000000001</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
         <v>63600.785613</v>
       </c>
       <c r="V7" s="1">
-        <v>17.666885</v>
+        <v>17.666885000000001</v>
       </c>
       <c r="W7" s="1">
-        <v>1211.140000</v>
+        <v>1211.1400000000001</v>
       </c>
       <c r="X7" s="1">
-        <v>-109.319000</v>
+        <v>-109.319</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>63610.945168</v>
+        <v>63610.945167999998</v>
       </c>
       <c r="AA7" s="1">
-        <v>17.669707</v>
+        <v>17.669706999999999</v>
       </c>
       <c r="AB7" s="1">
-        <v>1218.700000</v>
+        <v>1218.7</v>
       </c>
       <c r="AC7" s="1">
-        <v>-91.749900</v>
+        <v>-91.749899999999997</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>63621.493585</v>
+        <v>63621.493584999997</v>
       </c>
       <c r="AF7" s="1">
-        <v>17.672637</v>
+        <v>17.672637000000002</v>
       </c>
       <c r="AG7" s="1">
-        <v>1223.510000</v>
+        <v>1223.51</v>
       </c>
       <c r="AH7" s="1">
-        <v>-87.010800</v>
+        <v>-87.010800000000003</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>63631.968134</v>
+        <v>63631.968134000002</v>
       </c>
       <c r="AK7" s="1">
-        <v>17.675547</v>
+        <v>17.675547000000002</v>
       </c>
       <c r="AL7" s="1">
-        <v>1230.630000</v>
+        <v>1230.6300000000001</v>
       </c>
       <c r="AM7" s="1">
-        <v>-90.267500</v>
+        <v>-90.267499999999998</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>63642.648982</v>
+        <v>63642.648981999999</v>
       </c>
       <c r="AP7" s="1">
         <v>17.678514</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1238.620000</v>
+        <v>1238.6199999999999</v>
       </c>
       <c r="AR7" s="1">
-        <v>-102.157000</v>
+        <v>-102.157</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>63653.955256</v>
+        <v>63653.955256000001</v>
       </c>
       <c r="AU7" s="1">
-        <v>17.681654</v>
+        <v>17.681654000000002</v>
       </c>
       <c r="AV7" s="1">
-        <v>1248.710000</v>
+        <v>1248.71</v>
       </c>
       <c r="AW7" s="1">
-        <v>-121.481000</v>
+        <v>-121.48099999999999</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>63665.140041</v>
+        <v>63665.140040999999</v>
       </c>
       <c r="AZ7" s="1">
-        <v>17.684761</v>
+        <v>17.684761000000002</v>
       </c>
       <c r="BA7" s="1">
-        <v>1257.240000</v>
+        <v>1257.24</v>
       </c>
       <c r="BB7" s="1">
-        <v>-138.989000</v>
+        <v>-138.989</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>63676.146761</v>
+        <v>63676.146761000004</v>
       </c>
       <c r="BE7" s="1">
-        <v>17.687819</v>
+        <v>17.687819000000001</v>
       </c>
       <c r="BF7" s="1">
-        <v>1297.910000</v>
+        <v>1297.9100000000001</v>
       </c>
       <c r="BG7" s="1">
-        <v>-220.904000</v>
+        <v>-220.904</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>63687.180268</v>
+        <v>63687.180267999996</v>
       </c>
       <c r="BJ7" s="1">
-        <v>17.690883</v>
+        <v>17.690882999999999</v>
       </c>
       <c r="BK7" s="1">
-        <v>1368.330000</v>
+        <v>1368.33</v>
       </c>
       <c r="BL7" s="1">
-        <v>-356.825000</v>
+        <v>-356.82499999999999</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>63698.710268</v>
+        <v>63698.710268000003</v>
       </c>
       <c r="BO7" s="1">
-        <v>17.694086</v>
+        <v>17.694085999999999</v>
       </c>
       <c r="BP7" s="1">
-        <v>1483.810000</v>
+        <v>1483.81</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-577.497000</v>
+        <v>-577.49699999999996</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>63709.123773</v>
+        <v>63709.123772999999</v>
       </c>
       <c r="BT7" s="1">
-        <v>17.696979</v>
+        <v>17.696978999999999</v>
       </c>
       <c r="BU7" s="1">
-        <v>1617.380000</v>
+        <v>1617.38</v>
       </c>
       <c r="BV7" s="1">
-        <v>-825.806000</v>
+        <v>-825.80600000000004</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>63720.410240</v>
+        <v>63720.410239999997</v>
       </c>
       <c r="BY7" s="1">
-        <v>17.700114</v>
+        <v>17.700113999999999</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1770.090000</v>
+        <v>1770.09</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1095.010000</v>
+        <v>-1095.01</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>63731.769616</v>
+        <v>63731.769615999998</v>
       </c>
       <c r="CD7" s="1">
-        <v>17.703269</v>
+        <v>17.703268999999999</v>
       </c>
       <c r="CE7" s="1">
-        <v>2190.250000</v>
+        <v>2190.25</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1744.790000</v>
+        <v>-1744.79</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>63559.696067</v>
+        <v>63559.696066999997</v>
       </c>
       <c r="B8" s="1">
-        <v>17.655471</v>
+        <v>17.655470999999999</v>
       </c>
       <c r="C8" s="1">
-        <v>1144.170000</v>
+        <v>1144.17</v>
       </c>
       <c r="D8" s="1">
-        <v>-261.396000</v>
+        <v>-261.39600000000002</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>63570.193365</v>
+        <v>63570.193364999999</v>
       </c>
       <c r="G8" s="1">
-        <v>17.658387</v>
+        <v>17.658387000000001</v>
       </c>
       <c r="H8" s="1">
-        <v>1166.180000</v>
+        <v>1166.18</v>
       </c>
       <c r="I8" s="1">
-        <v>-219.320000</v>
+        <v>-219.32</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>63580.709576</v>
+        <v>63580.709576000001</v>
       </c>
       <c r="L8" s="1">
-        <v>17.661308</v>
+        <v>17.661307999999998</v>
       </c>
       <c r="M8" s="1">
-        <v>1195.330000</v>
+        <v>1195.33</v>
       </c>
       <c r="N8" s="1">
-        <v>-152.999000</v>
+        <v>-152.999</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>63590.917742</v>
+        <v>63590.917741999998</v>
       </c>
       <c r="Q8" s="1">
         <v>17.664144</v>
       </c>
       <c r="R8" s="1">
-        <v>1203.410000</v>
+        <v>1203.4100000000001</v>
       </c>
       <c r="S8" s="1">
-        <v>-130.514000</v>
+        <v>-130.51400000000001</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>63601.130829</v>
+        <v>63601.130829000002</v>
       </c>
       <c r="V8" s="1">
         <v>17.666981</v>
       </c>
       <c r="W8" s="1">
-        <v>1211.110000</v>
+        <v>1211.1099999999999</v>
       </c>
       <c r="X8" s="1">
-        <v>-109.323000</v>
+        <v>-109.32299999999999</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
         <v>63611.296831</v>
@@ -2098,13 +2514,13 @@
         <v>17.669805</v>
       </c>
       <c r="AB8" s="1">
-        <v>1218.740000</v>
+        <v>1218.74</v>
       </c>
       <c r="AC8" s="1">
-        <v>-91.823600</v>
+        <v>-91.823599999999999</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
         <v>63621.836357</v>
@@ -2113,13 +2529,13 @@
         <v>17.672732</v>
       </c>
       <c r="AG8" s="1">
-        <v>1223.430000</v>
+        <v>1223.43</v>
       </c>
       <c r="AH8" s="1">
-        <v>-87.120600</v>
+        <v>-87.120599999999996</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
         <v>63632.634757</v>
@@ -2128,151 +2544,151 @@
         <v>17.675732</v>
       </c>
       <c r="AL8" s="1">
-        <v>1230.630000</v>
+        <v>1230.6300000000001</v>
       </c>
       <c r="AM8" s="1">
-        <v>-90.261800</v>
+        <v>-90.261799999999994</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>63643.332933</v>
+        <v>63643.332932999998</v>
       </c>
       <c r="AP8" s="1">
         <v>17.678704</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1238.600000</v>
+        <v>1238.5999999999999</v>
       </c>
       <c r="AR8" s="1">
-        <v>-102.123000</v>
+        <v>-102.123</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>63654.411078</v>
+        <v>63654.411077999997</v>
       </c>
       <c r="AU8" s="1">
-        <v>17.681781</v>
+        <v>17.681781000000001</v>
       </c>
       <c r="AV8" s="1">
-        <v>1248.680000</v>
+        <v>1248.68</v>
       </c>
       <c r="AW8" s="1">
-        <v>-121.485000</v>
+        <v>-121.485</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>63665.528407</v>
+        <v>63665.528406999998</v>
       </c>
       <c r="AZ8" s="1">
-        <v>17.684869</v>
+        <v>17.684868999999999</v>
       </c>
       <c r="BA8" s="1">
-        <v>1257.230000</v>
+        <v>1257.23</v>
       </c>
       <c r="BB8" s="1">
-        <v>-138.956000</v>
+        <v>-138.95599999999999</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>63676.509832</v>
+        <v>63676.509832000003</v>
       </c>
       <c r="BE8" s="1">
-        <v>17.687919</v>
+        <v>17.687919000000001</v>
       </c>
       <c r="BF8" s="1">
-        <v>1297.900000</v>
+        <v>1297.9000000000001</v>
       </c>
       <c r="BG8" s="1">
-        <v>-220.928000</v>
+        <v>-220.928</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>63687.554746</v>
+        <v>63687.554746000002</v>
       </c>
       <c r="BJ8" s="1">
         <v>17.690987</v>
       </c>
       <c r="BK8" s="1">
-        <v>1368.310000</v>
+        <v>1368.31</v>
       </c>
       <c r="BL8" s="1">
-        <v>-356.844000</v>
+        <v>-356.84399999999999</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>63699.133355</v>
+        <v>63699.133354999998</v>
       </c>
       <c r="BO8" s="1">
-        <v>17.694204</v>
+        <v>17.694203999999999</v>
       </c>
       <c r="BP8" s="1">
-        <v>1483.810000</v>
+        <v>1483.81</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-577.560000</v>
+        <v>-577.55999999999995</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>63709.540950</v>
+        <v>63709.540950000002</v>
       </c>
       <c r="BT8" s="1">
-        <v>17.697095</v>
+        <v>17.697095000000001</v>
       </c>
       <c r="BU8" s="1">
-        <v>1617.400000</v>
+        <v>1617.4</v>
       </c>
       <c r="BV8" s="1">
-        <v>-825.799000</v>
+        <v>-825.79899999999998</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>63720.831838</v>
+        <v>63720.831837999998</v>
       </c>
       <c r="BY8" s="1">
-        <v>17.700231</v>
+        <v>17.700230999999999</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1770.190000</v>
+        <v>1770.19</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1095.060000</v>
+        <v>-1095.06</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>63732.319680</v>
+        <v>63732.319680000001</v>
       </c>
       <c r="CD8" s="1">
         <v>17.703422</v>
       </c>
       <c r="CE8" s="1">
-        <v>2189.060000</v>
+        <v>2189.06</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1745.450000</v>
+        <v>-1745.45</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
         <v>63560.038772</v>
       </c>
@@ -2280,73 +2696,73 @@
         <v>17.655566</v>
       </c>
       <c r="C9" s="1">
-        <v>1144.270000</v>
+        <v>1144.27</v>
       </c>
       <c r="D9" s="1">
-        <v>-261.341000</v>
+        <v>-261.34100000000001</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>63570.887268</v>
+        <v>63570.887267999999</v>
       </c>
       <c r="G9" s="1">
-        <v>17.658580</v>
+        <v>17.658580000000001</v>
       </c>
       <c r="H9" s="1">
-        <v>1166.640000</v>
+        <v>1166.6400000000001</v>
       </c>
       <c r="I9" s="1">
-        <v>-219.633000</v>
+        <v>-219.63300000000001</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>63581.055255</v>
+        <v>63581.055254999999</v>
       </c>
       <c r="L9" s="1">
-        <v>17.661404</v>
+        <v>17.661404000000001</v>
       </c>
       <c r="M9" s="1">
-        <v>1195.400000</v>
+        <v>1195.4000000000001</v>
       </c>
       <c r="N9" s="1">
-        <v>-152.796000</v>
+        <v>-152.79599999999999</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
         <v>63591.264422</v>
       </c>
       <c r="Q9" s="1">
-        <v>17.664240</v>
+        <v>17.664239999999999</v>
       </c>
       <c r="R9" s="1">
-        <v>1203.470000</v>
+        <v>1203.47</v>
       </c>
       <c r="S9" s="1">
-        <v>-130.550000</v>
+        <v>-130.55000000000001</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>63601.475548</v>
+        <v>63601.475548000002</v>
       </c>
       <c r="V9" s="1">
-        <v>17.667077</v>
+        <v>17.667076999999999</v>
       </c>
       <c r="W9" s="1">
-        <v>1211.010000</v>
+        <v>1211.01</v>
       </c>
       <c r="X9" s="1">
-        <v>-109.354000</v>
+        <v>-109.354</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
         <v>63611.647998</v>
@@ -2355,405 +2771,405 @@
         <v>17.669902</v>
       </c>
       <c r="AB9" s="1">
-        <v>1218.750000</v>
+        <v>1218.75</v>
       </c>
       <c r="AC9" s="1">
-        <v>-91.738300</v>
+        <v>-91.738299999999995</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>63622.492529</v>
+        <v>63622.492529000003</v>
       </c>
       <c r="AF9" s="1">
         <v>17.672915</v>
       </c>
       <c r="AG9" s="1">
-        <v>1223.530000</v>
+        <v>1223.53</v>
       </c>
       <c r="AH9" s="1">
-        <v>-87.080000</v>
+        <v>-87.08</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
         <v>63633.014163</v>
       </c>
       <c r="AK9" s="1">
-        <v>17.675837</v>
+        <v>17.675837000000001</v>
       </c>
       <c r="AL9" s="1">
-        <v>1230.600000</v>
+        <v>1230.5999999999999</v>
       </c>
       <c r="AM9" s="1">
-        <v>-90.252900</v>
+        <v>-90.252899999999997</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>63643.732709</v>
+        <v>63643.732709000004</v>
       </c>
       <c r="AP9" s="1">
         <v>17.678815</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1238.610000</v>
+        <v>1238.6099999999999</v>
       </c>
       <c r="AR9" s="1">
-        <v>-102.139000</v>
+        <v>-102.139</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>63654.774645</v>
+        <v>63654.774644999998</v>
       </c>
       <c r="AU9" s="1">
-        <v>17.681882</v>
+        <v>17.681882000000002</v>
       </c>
       <c r="AV9" s="1">
-        <v>1248.670000</v>
+        <v>1248.67</v>
       </c>
       <c r="AW9" s="1">
-        <v>-121.504000</v>
+        <v>-121.504</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
         <v>63665.883575</v>
       </c>
       <c r="AZ9" s="1">
-        <v>17.684968</v>
+        <v>17.684968000000001</v>
       </c>
       <c r="BA9" s="1">
-        <v>1257.230000</v>
+        <v>1257.23</v>
       </c>
       <c r="BB9" s="1">
-        <v>-138.984000</v>
+        <v>-138.98400000000001</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>63676.875419</v>
+        <v>63676.875419000004</v>
       </c>
       <c r="BE9" s="1">
-        <v>17.688021</v>
+        <v>17.688020999999999</v>
       </c>
       <c r="BF9" s="1">
-        <v>1297.900000</v>
+        <v>1297.9000000000001</v>
       </c>
       <c r="BG9" s="1">
-        <v>-220.913000</v>
+        <v>-220.91300000000001</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>63687.977337</v>
+        <v>63687.977336999997</v>
       </c>
       <c r="BJ9" s="1">
         <v>17.691105</v>
       </c>
       <c r="BK9" s="1">
-        <v>1368.360000</v>
+        <v>1368.36</v>
       </c>
       <c r="BL9" s="1">
-        <v>-356.834000</v>
+        <v>-356.834</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>63699.531655</v>
+        <v>63699.531654999999</v>
       </c>
       <c r="BO9" s="1">
-        <v>17.694314</v>
+        <v>17.694313999999999</v>
       </c>
       <c r="BP9" s="1">
-        <v>1483.790000</v>
+        <v>1483.79</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-577.557000</v>
+        <v>-577.55700000000002</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>63709.975902</v>
+        <v>63709.975901999998</v>
       </c>
       <c r="BT9" s="1">
-        <v>17.697216</v>
+        <v>17.697216000000001</v>
       </c>
       <c r="BU9" s="1">
-        <v>1617.460000</v>
+        <v>1617.46</v>
       </c>
       <c r="BV9" s="1">
-        <v>-825.942000</v>
+        <v>-825.94200000000001</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
         <v>63721.250989</v>
       </c>
       <c r="BY9" s="1">
-        <v>17.700347</v>
+        <v>17.700347000000001</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1770.160000</v>
+        <v>1770.16</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1094.920000</v>
+        <v>-1094.92</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>63732.850432</v>
+        <v>63732.850431999999</v>
       </c>
       <c r="CD9" s="1">
-        <v>17.703570</v>
+        <v>17.703569999999999</v>
       </c>
       <c r="CE9" s="1">
-        <v>2189.980000</v>
+        <v>2189.98</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1743.830000</v>
+        <v>-1743.83</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>63560.719810</v>
+        <v>63560.719810000002</v>
       </c>
       <c r="B10" s="1">
         <v>17.655756</v>
       </c>
       <c r="C10" s="1">
-        <v>1144.370000</v>
+        <v>1144.3699999999999</v>
       </c>
       <c r="D10" s="1">
-        <v>-261.184000</v>
+        <v>-261.18400000000003</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>63571.233508</v>
+        <v>63571.233507999998</v>
       </c>
       <c r="G10" s="1">
         <v>17.658676</v>
       </c>
       <c r="H10" s="1">
-        <v>1165.560000</v>
+        <v>1165.56</v>
       </c>
       <c r="I10" s="1">
-        <v>-219.258000</v>
+        <v>-219.25800000000001</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>63581.398983</v>
+        <v>63581.398982999999</v>
       </c>
       <c r="L10" s="1">
-        <v>17.661500</v>
+        <v>17.6615</v>
       </c>
       <c r="M10" s="1">
-        <v>1195.380000</v>
+        <v>1195.3800000000001</v>
       </c>
       <c r="N10" s="1">
-        <v>-153.012000</v>
+        <v>-153.012</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>63591.615081</v>
+        <v>63591.615081000004</v>
       </c>
       <c r="Q10" s="1">
-        <v>17.664338</v>
+        <v>17.664338000000001</v>
       </c>
       <c r="R10" s="1">
-        <v>1203.450000</v>
+        <v>1203.45</v>
       </c>
       <c r="S10" s="1">
-        <v>-130.539000</v>
+        <v>-130.53899999999999</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>63602.132748</v>
+        <v>63602.132748000004</v>
       </c>
       <c r="V10" s="1">
-        <v>17.667259</v>
+        <v>17.667259000000001</v>
       </c>
       <c r="W10" s="1">
-        <v>1211.090000</v>
+        <v>1211.0899999999999</v>
       </c>
       <c r="X10" s="1">
-        <v>-109.315000</v>
+        <v>-109.315</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>63612.320077</v>
+        <v>63612.320076999997</v>
       </c>
       <c r="AA10" s="1">
-        <v>17.670089</v>
+        <v>17.670089000000001</v>
       </c>
       <c r="AB10" s="1">
-        <v>1218.770000</v>
+        <v>1218.77</v>
       </c>
       <c r="AC10" s="1">
-        <v>-91.785000</v>
+        <v>-91.784999999999997</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>63622.868510</v>
+        <v>63622.86851</v>
       </c>
       <c r="AF10" s="1">
         <v>17.673019</v>
       </c>
       <c r="AG10" s="1">
-        <v>1223.490000</v>
+        <v>1223.49</v>
       </c>
       <c r="AH10" s="1">
-        <v>-87.157200</v>
+        <v>-87.157200000000003</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>63633.362386</v>
+        <v>63633.362386000001</v>
       </c>
       <c r="AK10" s="1">
-        <v>17.675934</v>
+        <v>17.675934000000002</v>
       </c>
       <c r="AL10" s="1">
-        <v>1230.620000</v>
+        <v>1230.6199999999999</v>
       </c>
       <c r="AM10" s="1">
-        <v>-90.282300</v>
+        <v>-90.282300000000006</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>63644.116117</v>
+        <v>63644.116116999998</v>
       </c>
       <c r="AP10" s="1">
-        <v>17.678921</v>
+        <v>17.678920999999999</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1238.630000</v>
+        <v>1238.6300000000001</v>
       </c>
       <c r="AR10" s="1">
-        <v>-102.126000</v>
+        <v>-102.126</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>63655.141702</v>
+        <v>63655.141702000001</v>
       </c>
       <c r="AU10" s="1">
         <v>17.681984</v>
       </c>
       <c r="AV10" s="1">
-        <v>1248.690000</v>
+        <v>1248.69</v>
       </c>
       <c r="AW10" s="1">
-        <v>-121.495000</v>
+        <v>-121.495</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>63666.305143</v>
+        <v>63666.305142999998</v>
       </c>
       <c r="AZ10" s="1">
-        <v>17.685085</v>
+        <v>17.685085000000001</v>
       </c>
       <c r="BA10" s="1">
-        <v>1257.230000</v>
+        <v>1257.23</v>
       </c>
       <c r="BB10" s="1">
-        <v>-138.986000</v>
+        <v>-138.98599999999999</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>63677.299961</v>
+        <v>63677.299960999997</v>
       </c>
       <c r="BE10" s="1">
         <v>17.688139</v>
       </c>
       <c r="BF10" s="1">
-        <v>1297.900000</v>
+        <v>1297.9000000000001</v>
       </c>
       <c r="BG10" s="1">
-        <v>-220.898000</v>
+        <v>-220.898</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>63688.332475</v>
+        <v>63688.332475000003</v>
       </c>
       <c r="BJ10" s="1">
-        <v>17.691203</v>
+        <v>17.691203000000002</v>
       </c>
       <c r="BK10" s="1">
-        <v>1368.340000</v>
+        <v>1368.34</v>
       </c>
       <c r="BL10" s="1">
-        <v>-356.895000</v>
+        <v>-356.89499999999998</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
         <v>63699.954393</v>
       </c>
       <c r="BO10" s="1">
-        <v>17.694432</v>
+        <v>17.694431999999999</v>
       </c>
       <c r="BP10" s="1">
-        <v>1483.840000</v>
+        <v>1483.84</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-577.535000</v>
+        <v>-577.53499999999997</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>63710.406924</v>
+        <v>63710.406924000003</v>
       </c>
       <c r="BT10" s="1">
-        <v>17.697335</v>
+        <v>17.697334999999999</v>
       </c>
       <c r="BU10" s="1">
-        <v>1617.430000</v>
+        <v>1617.43</v>
       </c>
       <c r="BV10" s="1">
-        <v>-826.035000</v>
+        <v>-826.03499999999997</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
         <v>63721.679998</v>
@@ -2762,437 +3178,437 @@
         <v>17.700467</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1770.190000</v>
+        <v>1770.19</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1094.970000</v>
+        <v>-1094.97</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>63733.368222</v>
+        <v>63733.368221999997</v>
       </c>
       <c r="CD10" s="1">
         <v>17.703713</v>
       </c>
       <c r="CE10" s="1">
-        <v>2188.730000</v>
+        <v>2188.73</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1743.010000</v>
+        <v>-1743.01</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>63561.066839</v>
+        <v>63561.066838999999</v>
       </c>
       <c r="B11" s="1">
-        <v>17.655852</v>
+        <v>17.655851999999999</v>
       </c>
       <c r="C11" s="1">
-        <v>1144.270000</v>
+        <v>1144.27</v>
       </c>
       <c r="D11" s="1">
-        <v>-261.120000</v>
+        <v>-261.12</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>63571.577235</v>
+        <v>63571.577234999997</v>
       </c>
       <c r="G11" s="1">
-        <v>17.658771</v>
+        <v>17.658771000000002</v>
       </c>
       <c r="H11" s="1">
-        <v>1167.070000</v>
+        <v>1167.07</v>
       </c>
       <c r="I11" s="1">
-        <v>-219.354000</v>
+        <v>-219.35400000000001</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>63582.059190</v>
+        <v>63582.05919</v>
       </c>
       <c r="L11" s="1">
         <v>17.661683</v>
       </c>
       <c r="M11" s="1">
-        <v>1195.400000</v>
+        <v>1195.4000000000001</v>
       </c>
       <c r="N11" s="1">
-        <v>-153.113000</v>
+        <v>-153.113</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>63592.272777</v>
+        <v>63592.272776999998</v>
       </c>
       <c r="Q11" s="1">
-        <v>17.664520</v>
+        <v>17.66452</v>
       </c>
       <c r="R11" s="1">
-        <v>1203.420000</v>
+        <v>1203.42</v>
       </c>
       <c r="S11" s="1">
-        <v>-130.672000</v>
+        <v>-130.672</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>63602.506236</v>
+        <v>63602.506236000001</v>
       </c>
       <c r="V11" s="1">
-        <v>17.667363</v>
+        <v>17.667363000000002</v>
       </c>
       <c r="W11" s="1">
-        <v>1211.150000</v>
+        <v>1211.1500000000001</v>
       </c>
       <c r="X11" s="1">
-        <v>-109.242000</v>
+        <v>-109.242</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>63612.753582</v>
+        <v>63612.753581999998</v>
       </c>
       <c r="AA11" s="1">
         <v>17.670209</v>
       </c>
       <c r="AB11" s="1">
-        <v>1218.700000</v>
+        <v>1218.7</v>
       </c>
       <c r="AC11" s="1">
-        <v>-91.875300</v>
+        <v>-91.875299999999996</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>63623.210276</v>
+        <v>63623.210275999998</v>
       </c>
       <c r="AF11" s="1">
-        <v>17.673114</v>
+        <v>17.673114000000002</v>
       </c>
       <c r="AG11" s="1">
-        <v>1223.420000</v>
+        <v>1223.42</v>
       </c>
       <c r="AH11" s="1">
-        <v>-87.232800</v>
+        <v>-87.232799999999997</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>63633.712033</v>
+        <v>63633.712033000003</v>
       </c>
       <c r="AK11" s="1">
-        <v>17.676031</v>
+        <v>17.676030999999998</v>
       </c>
       <c r="AL11" s="1">
-        <v>1230.610000</v>
+        <v>1230.6099999999999</v>
       </c>
       <c r="AM11" s="1">
-        <v>-90.248600</v>
+        <v>-90.248599999999996</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>63644.476707</v>
+        <v>63644.476707000002</v>
       </c>
       <c r="AP11" s="1">
-        <v>17.679021</v>
+        <v>17.679020999999999</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1238.600000</v>
+        <v>1238.5999999999999</v>
       </c>
       <c r="AR11" s="1">
-        <v>-102.159000</v>
+        <v>-102.15900000000001</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>63655.569732</v>
+        <v>63655.569732000004</v>
       </c>
       <c r="AU11" s="1">
-        <v>17.682103</v>
+        <v>17.682103000000001</v>
       </c>
       <c r="AV11" s="1">
-        <v>1248.690000</v>
+        <v>1248.69</v>
       </c>
       <c r="AW11" s="1">
-        <v>-121.489000</v>
+        <v>-121.489</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>63666.601258</v>
+        <v>63666.601258000002</v>
       </c>
       <c r="AZ11" s="1">
         <v>17.685167</v>
       </c>
       <c r="BA11" s="1">
-        <v>1257.260000</v>
+        <v>1257.26</v>
       </c>
       <c r="BB11" s="1">
-        <v>-138.968000</v>
+        <v>-138.96799999999999</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>63677.595575</v>
+        <v>63677.595574999999</v>
       </c>
       <c r="BE11" s="1">
-        <v>17.688221</v>
+        <v>17.688220999999999</v>
       </c>
       <c r="BF11" s="1">
-        <v>1297.900000</v>
+        <v>1297.9000000000001</v>
       </c>
       <c r="BG11" s="1">
-        <v>-220.877000</v>
+        <v>-220.87700000000001</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
         <v>63688.709961</v>
       </c>
       <c r="BJ11" s="1">
-        <v>17.691308</v>
+        <v>17.691307999999999</v>
       </c>
       <c r="BK11" s="1">
-        <v>1368.350000</v>
+        <v>1368.35</v>
       </c>
       <c r="BL11" s="1">
-        <v>-356.831000</v>
+        <v>-356.83100000000002</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>63700.351561</v>
+        <v>63700.351561000003</v>
       </c>
       <c r="BO11" s="1">
-        <v>17.694542</v>
+        <v>17.694541999999998</v>
       </c>
       <c r="BP11" s="1">
-        <v>1483.830000</v>
+        <v>1483.83</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-577.476000</v>
+        <v>-577.476</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>63710.818140</v>
+        <v>63710.818140000003</v>
       </c>
       <c r="BT11" s="1">
-        <v>17.697449</v>
+        <v>17.697448999999999</v>
       </c>
       <c r="BU11" s="1">
-        <v>1617.360000</v>
+        <v>1617.36</v>
       </c>
       <c r="BV11" s="1">
-        <v>-826.104000</v>
+        <v>-826.10400000000004</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>63722.109565</v>
+        <v>63722.109564999999</v>
       </c>
       <c r="BY11" s="1">
-        <v>17.700586</v>
+        <v>17.700586000000001</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1770.110000</v>
+        <v>1770.11</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1094.950000</v>
+        <v>-1094.95</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>63733.887038</v>
+        <v>63733.887038000001</v>
       </c>
       <c r="CD11" s="1">
         <v>17.703858</v>
       </c>
       <c r="CE11" s="1">
-        <v>2187.880000</v>
+        <v>2187.88</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1744.800000</v>
+        <v>-1744.8</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>63561.404258</v>
+        <v>63561.404258000002</v>
       </c>
       <c r="B12" s="1">
         <v>17.655946</v>
       </c>
       <c r="C12" s="1">
-        <v>1144.150000</v>
+        <v>1144.1500000000001</v>
       </c>
       <c r="D12" s="1">
-        <v>-261.322000</v>
+        <v>-261.322</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>63572.229940</v>
+        <v>63572.229939999997</v>
       </c>
       <c r="G12" s="1">
         <v>17.658953</v>
       </c>
       <c r="H12" s="1">
-        <v>1166.670000</v>
+        <v>1166.67</v>
       </c>
       <c r="I12" s="1">
-        <v>-220.116000</v>
+        <v>-220.11600000000001</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>63582.440084</v>
+        <v>63582.440084000002</v>
       </c>
       <c r="L12" s="1">
-        <v>17.661789</v>
+        <v>17.661788999999999</v>
       </c>
       <c r="M12" s="1">
-        <v>1195.230000</v>
+        <v>1195.23</v>
       </c>
       <c r="N12" s="1">
-        <v>-153.263000</v>
+        <v>-153.26300000000001</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>63592.660647</v>
+        <v>63592.660646999997</v>
       </c>
       <c r="Q12" s="1">
         <v>17.664628</v>
       </c>
       <c r="R12" s="1">
-        <v>1203.450000</v>
+        <v>1203.45</v>
       </c>
       <c r="S12" s="1">
-        <v>-130.593000</v>
+        <v>-130.59299999999999</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>63602.850954</v>
+        <v>63602.850954000001</v>
       </c>
       <c r="V12" s="1">
-        <v>17.667459</v>
+        <v>17.667459000000001</v>
       </c>
       <c r="W12" s="1">
-        <v>1211.000000</v>
+        <v>1211</v>
       </c>
       <c r="X12" s="1">
-        <v>-109.350000</v>
+        <v>-109.35</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>63613.039772</v>
+        <v>63613.039771999996</v>
       </c>
       <c r="AA12" s="1">
         <v>17.670289</v>
       </c>
       <c r="AB12" s="1">
-        <v>1218.740000</v>
+        <v>1218.74</v>
       </c>
       <c r="AC12" s="1">
-        <v>-91.806200</v>
+        <v>-91.806200000000004</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>63623.553505</v>
+        <v>63623.553505000003</v>
       </c>
       <c r="AF12" s="1">
         <v>17.673209</v>
       </c>
       <c r="AG12" s="1">
-        <v>1223.450000</v>
+        <v>1223.45</v>
       </c>
       <c r="AH12" s="1">
-        <v>-87.162600</v>
+        <v>-87.162599999999998</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>63634.141570</v>
+        <v>63634.14157</v>
       </c>
       <c r="AK12" s="1">
-        <v>17.676150</v>
+        <v>17.67615</v>
       </c>
       <c r="AL12" s="1">
-        <v>1230.590000</v>
+        <v>1230.5899999999999</v>
       </c>
       <c r="AM12" s="1">
-        <v>-90.234000</v>
+        <v>-90.233999999999995</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>63644.916162</v>
+        <v>63644.916162000001</v>
       </c>
       <c r="AP12" s="1">
         <v>17.679143</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1238.630000</v>
+        <v>1238.6300000000001</v>
       </c>
       <c r="AR12" s="1">
-        <v>-102.146000</v>
+        <v>-102.146</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
         <v>63655.871798</v>
       </c>
       <c r="AU12" s="1">
-        <v>17.682187</v>
+        <v>17.682186999999999</v>
       </c>
       <c r="AV12" s="1">
-        <v>1248.690000</v>
+        <v>1248.69</v>
       </c>
       <c r="AW12" s="1">
-        <v>-121.471000</v>
+        <v>-121.471</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
         <v>63666.960885</v>
@@ -3201,542 +3617,542 @@
         <v>17.685267</v>
       </c>
       <c r="BA12" s="1">
-        <v>1257.260000</v>
+        <v>1257.26</v>
       </c>
       <c r="BB12" s="1">
-        <v>-138.975000</v>
+        <v>-138.97499999999999</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>63677.955672</v>
+        <v>63677.955671999996</v>
       </c>
       <c r="BE12" s="1">
-        <v>17.688321</v>
+        <v>17.688320999999998</v>
       </c>
       <c r="BF12" s="1">
-        <v>1297.890000</v>
+        <v>1297.8900000000001</v>
       </c>
       <c r="BG12" s="1">
-        <v>-220.893000</v>
+        <v>-220.893</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>63689.084409</v>
+        <v>63689.084409000003</v>
       </c>
       <c r="BJ12" s="1">
         <v>17.691412</v>
       </c>
       <c r="BK12" s="1">
-        <v>1368.340000</v>
+        <v>1368.34</v>
       </c>
       <c r="BL12" s="1">
-        <v>-356.821000</v>
+        <v>-356.82100000000003</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>63700.774618</v>
+        <v>63700.774618000003</v>
       </c>
       <c r="BO12" s="1">
-        <v>17.694660</v>
+        <v>17.694659999999999</v>
       </c>
       <c r="BP12" s="1">
-        <v>1483.820000</v>
+        <v>1483.82</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-577.549000</v>
+        <v>-577.54899999999998</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>63711.258060</v>
+        <v>63711.25806</v>
       </c>
       <c r="BT12" s="1">
-        <v>17.697572</v>
+        <v>17.697572000000001</v>
       </c>
       <c r="BU12" s="1">
-        <v>1617.390000</v>
+        <v>1617.39</v>
       </c>
       <c r="BV12" s="1">
-        <v>-826.229000</v>
+        <v>-826.22900000000004</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>63722.543534</v>
+        <v>63722.543533999997</v>
       </c>
       <c r="BY12" s="1">
-        <v>17.700707</v>
+        <v>17.700707000000001</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1770.250000</v>
+        <v>1770.25</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1095.050000</v>
+        <v>-1095.05</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>63734.405854</v>
+        <v>63734.405853999997</v>
       </c>
       <c r="CD12" s="1">
-        <v>17.704002</v>
+        <v>17.704001999999999</v>
       </c>
       <c r="CE12" s="1">
-        <v>2189.800000</v>
+        <v>2189.8000000000002</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1745.370000</v>
+        <v>-1745.37</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>63562.067408</v>
+        <v>63562.067408000003</v>
       </c>
       <c r="B13" s="1">
-        <v>17.656130</v>
+        <v>17.656130000000001</v>
       </c>
       <c r="C13" s="1">
-        <v>1144.170000</v>
+        <v>1144.17</v>
       </c>
       <c r="D13" s="1">
-        <v>-261.187000</v>
+        <v>-261.18700000000001</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>63572.613842</v>
+        <v>63572.613841999999</v>
       </c>
       <c r="G13" s="1">
-        <v>17.659059</v>
+        <v>17.659058999999999</v>
       </c>
       <c r="H13" s="1">
-        <v>1166.720000</v>
+        <v>1166.72</v>
       </c>
       <c r="I13" s="1">
-        <v>-220.022000</v>
+        <v>-220.02199999999999</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>63582.785300</v>
+        <v>63582.785300000003</v>
       </c>
       <c r="L13" s="1">
-        <v>17.661885</v>
+        <v>17.661885000000002</v>
       </c>
       <c r="M13" s="1">
-        <v>1195.390000</v>
+        <v>1195.3900000000001</v>
       </c>
       <c r="N13" s="1">
-        <v>-153.022000</v>
+        <v>-153.02199999999999</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>63593.006891</v>
+        <v>63593.006890999997</v>
       </c>
       <c r="Q13" s="1">
         <v>17.664724</v>
       </c>
       <c r="R13" s="1">
-        <v>1203.450000</v>
+        <v>1203.45</v>
       </c>
       <c r="S13" s="1">
-        <v>-130.518000</v>
+        <v>-130.518</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>63603.192203</v>
+        <v>63603.192202999999</v>
       </c>
       <c r="V13" s="1">
-        <v>17.667553</v>
+        <v>17.667553000000002</v>
       </c>
       <c r="W13" s="1">
-        <v>1211.010000</v>
+        <v>1211.01</v>
       </c>
       <c r="X13" s="1">
-        <v>-109.308000</v>
+        <v>-109.30800000000001</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>63613.483692</v>
+        <v>63613.483692000002</v>
       </c>
       <c r="AA13" s="1">
-        <v>17.670412</v>
+        <v>17.670411999999999</v>
       </c>
       <c r="AB13" s="1">
-        <v>1218.690000</v>
+        <v>1218.69</v>
       </c>
       <c r="AC13" s="1">
-        <v>-91.870700</v>
+        <v>-91.870699999999999</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>63623.992959</v>
+        <v>63623.992959000003</v>
       </c>
       <c r="AF13" s="1">
-        <v>17.673331</v>
+        <v>17.673331000000001</v>
       </c>
       <c r="AG13" s="1">
-        <v>1223.450000</v>
+        <v>1223.45</v>
       </c>
       <c r="AH13" s="1">
-        <v>-87.074800</v>
+        <v>-87.074799999999996</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>63634.408451</v>
+        <v>63634.408451000003</v>
       </c>
       <c r="AK13" s="1">
-        <v>17.676225</v>
+        <v>17.676224999999999</v>
       </c>
       <c r="AL13" s="1">
-        <v>1230.590000</v>
+        <v>1230.5899999999999</v>
       </c>
       <c r="AM13" s="1">
-        <v>-90.284000</v>
+        <v>-90.284000000000006</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>63645.199378</v>
+        <v>63645.199377999998</v>
       </c>
       <c r="AP13" s="1">
-        <v>17.679222</v>
+        <v>17.679221999999999</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1238.620000</v>
+        <v>1238.6199999999999</v>
       </c>
       <c r="AR13" s="1">
-        <v>-102.140000</v>
+        <v>-102.14</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>63656.239829</v>
+        <v>63656.239828999998</v>
       </c>
       <c r="AU13" s="1">
-        <v>17.682289</v>
+        <v>17.682289000000001</v>
       </c>
       <c r="AV13" s="1">
-        <v>1248.710000</v>
+        <v>1248.71</v>
       </c>
       <c r="AW13" s="1">
-        <v>-121.459000</v>
+        <v>-121.459</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>63667.320981</v>
+        <v>63667.320980999997</v>
       </c>
       <c r="AZ13" s="1">
-        <v>17.685367</v>
+        <v>17.685366999999999</v>
       </c>
       <c r="BA13" s="1">
-        <v>1257.250000</v>
+        <v>1257.25</v>
       </c>
       <c r="BB13" s="1">
-        <v>-138.983000</v>
+        <v>-138.983</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>63678.316758</v>
+        <v>63678.316758000001</v>
       </c>
       <c r="BE13" s="1">
-        <v>17.688421</v>
+        <v>17.688421000000002</v>
       </c>
       <c r="BF13" s="1">
-        <v>1297.910000</v>
+        <v>1297.9100000000001</v>
       </c>
       <c r="BG13" s="1">
-        <v>-220.888000</v>
+        <v>-220.88800000000001</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>63689.835848</v>
+        <v>63689.835848000002</v>
       </c>
       <c r="BJ13" s="1">
-        <v>17.691621</v>
+        <v>17.691621000000001</v>
       </c>
       <c r="BK13" s="1">
-        <v>1368.370000</v>
+        <v>1368.37</v>
       </c>
       <c r="BL13" s="1">
-        <v>-356.844000</v>
+        <v>-356.84399999999999</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>63701.170920</v>
+        <v>63701.170919999997</v>
       </c>
       <c r="BO13" s="1">
-        <v>17.694770</v>
+        <v>17.694769999999998</v>
       </c>
       <c r="BP13" s="1">
-        <v>1483.750000</v>
+        <v>1483.75</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-577.508000</v>
+        <v>-577.50800000000004</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
         <v>63711.678171</v>
       </c>
       <c r="BT13" s="1">
-        <v>17.697688</v>
+        <v>17.697687999999999</v>
       </c>
       <c r="BU13" s="1">
-        <v>1617.270000</v>
+        <v>1617.27</v>
       </c>
       <c r="BV13" s="1">
-        <v>-826.235000</v>
+        <v>-826.23500000000001</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>63722.961659</v>
+        <v>63722.961659000001</v>
       </c>
       <c r="BY13" s="1">
         <v>17.700823</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1770.140000</v>
+        <v>1770.14</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1095.000000</v>
+        <v>-1095</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>63735.228219</v>
+        <v>63735.228218999997</v>
       </c>
       <c r="CD13" s="1">
-        <v>17.704230</v>
+        <v>17.704229999999999</v>
       </c>
       <c r="CE13" s="1">
-        <v>2190.240000</v>
+        <v>2190.2399999999998</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1743.370000</v>
+        <v>-1743.37</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>63562.429027</v>
+        <v>63562.429026999998</v>
       </c>
       <c r="B14" s="1">
-        <v>17.656230</v>
+        <v>17.656230000000001</v>
       </c>
       <c r="C14" s="1">
-        <v>1144.460000</v>
+        <v>1144.46</v>
       </c>
       <c r="D14" s="1">
-        <v>-261.204000</v>
+        <v>-261.20400000000001</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>63572.957105</v>
+        <v>63572.957105000001</v>
       </c>
       <c r="G14" s="1">
-        <v>17.659155</v>
+        <v>17.659154999999998</v>
       </c>
       <c r="H14" s="1">
-        <v>1166.590000</v>
+        <v>1166.5899999999999</v>
       </c>
       <c r="I14" s="1">
-        <v>-219.974000</v>
+        <v>-219.97399999999999</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>63583.127540</v>
+        <v>63583.127540000001</v>
       </c>
       <c r="L14" s="1">
-        <v>17.661980</v>
+        <v>17.66198</v>
       </c>
       <c r="M14" s="1">
-        <v>1195.410000</v>
+        <v>1195.4100000000001</v>
       </c>
       <c r="N14" s="1">
-        <v>-152.984000</v>
+        <v>-152.98400000000001</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>63593.360006</v>
+        <v>63593.360006000003</v>
       </c>
       <c r="Q14" s="1">
-        <v>17.664822</v>
+        <v>17.664822000000001</v>
       </c>
       <c r="R14" s="1">
-        <v>1203.490000</v>
+        <v>1203.49</v>
       </c>
       <c r="S14" s="1">
-        <v>-130.577000</v>
+        <v>-130.577</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>63603.611321</v>
+        <v>63603.611320999997</v>
       </c>
       <c r="V14" s="1">
-        <v>17.667670</v>
+        <v>17.667670000000001</v>
       </c>
       <c r="W14" s="1">
-        <v>1211.140000</v>
+        <v>1211.1400000000001</v>
       </c>
       <c r="X14" s="1">
-        <v>-109.346000</v>
+        <v>-109.346</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>63613.757981</v>
+        <v>63613.757981000002</v>
       </c>
       <c r="AA14" s="1">
-        <v>17.670488</v>
+        <v>17.670487999999999</v>
       </c>
       <c r="AB14" s="1">
-        <v>1218.830000</v>
+        <v>1218.83</v>
       </c>
       <c r="AC14" s="1">
-        <v>-91.870600</v>
+        <v>-91.870599999999996</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>63624.268702</v>
+        <v>63624.268702000001</v>
       </c>
       <c r="AF14" s="1">
-        <v>17.673408</v>
+        <v>17.673407999999998</v>
       </c>
       <c r="AG14" s="1">
-        <v>1223.480000</v>
+        <v>1223.48</v>
       </c>
       <c r="AH14" s="1">
-        <v>-87.160300</v>
+        <v>-87.160300000000007</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>63634.758095</v>
+        <v>63634.758094999997</v>
       </c>
       <c r="AK14" s="1">
-        <v>17.676322</v>
+        <v>17.676321999999999</v>
       </c>
       <c r="AL14" s="1">
-        <v>1230.590000</v>
+        <v>1230.5899999999999</v>
       </c>
       <c r="AM14" s="1">
-        <v>-90.252900</v>
+        <v>-90.252899999999997</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>63645.560466</v>
+        <v>63645.560466000003</v>
       </c>
       <c r="AP14" s="1">
-        <v>17.679322</v>
+        <v>17.679321999999999</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1238.610000</v>
+        <v>1238.6099999999999</v>
       </c>
       <c r="AR14" s="1">
-        <v>-102.138000</v>
+        <v>-102.13800000000001</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>63656.599923</v>
+        <v>63656.599923000002</v>
       </c>
       <c r="AU14" s="1">
-        <v>17.682389</v>
+        <v>17.682389000000001</v>
       </c>
       <c r="AV14" s="1">
-        <v>1248.700000</v>
+        <v>1248.7</v>
       </c>
       <c r="AW14" s="1">
-        <v>-121.503000</v>
+        <v>-121.503</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>63668.040155</v>
+        <v>63668.040155000002</v>
       </c>
       <c r="AZ14" s="1">
-        <v>17.685567</v>
+        <v>17.685566999999999</v>
       </c>
       <c r="BA14" s="1">
-        <v>1257.230000</v>
+        <v>1257.23</v>
       </c>
       <c r="BB14" s="1">
-        <v>-138.973000</v>
+        <v>-138.97300000000001</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>63679.038933</v>
+        <v>63679.038933000003</v>
       </c>
       <c r="BE14" s="1">
-        <v>17.688622</v>
+        <v>17.688621999999999</v>
       </c>
       <c r="BF14" s="1">
-        <v>1297.910000</v>
+        <v>1297.9100000000001</v>
       </c>
       <c r="BG14" s="1">
-        <v>-220.913000</v>
+        <v>-220.91300000000001</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
         <v>63690.215783</v>
@@ -3745,1238 +4161,1238 @@
         <v>17.691727</v>
       </c>
       <c r="BK14" s="1">
-        <v>1368.340000</v>
+        <v>1368.34</v>
       </c>
       <c r="BL14" s="1">
-        <v>-356.864000</v>
+        <v>-356.86399999999998</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>63701.591067</v>
+        <v>63701.591067000001</v>
       </c>
       <c r="BO14" s="1">
         <v>17.694886</v>
       </c>
       <c r="BP14" s="1">
-        <v>1483.810000</v>
+        <v>1483.81</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-577.565000</v>
+        <v>-577.56500000000005</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>63712.086874</v>
+        <v>63712.086874000001</v>
       </c>
       <c r="BT14" s="1">
-        <v>17.697802</v>
+        <v>17.697801999999999</v>
       </c>
       <c r="BU14" s="1">
-        <v>1617.250000</v>
+        <v>1617.25</v>
       </c>
       <c r="BV14" s="1">
-        <v>-826.338000</v>
+        <v>-826.33799999999997</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>63723.695770</v>
+        <v>63723.695769999998</v>
       </c>
       <c r="BY14" s="1">
         <v>17.701027</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1770.210000</v>
+        <v>1770.21</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1095.000000</v>
+        <v>-1095</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>63735.470763</v>
+        <v>63735.470762999998</v>
       </c>
       <c r="CD14" s="1">
         <v>17.704297</v>
       </c>
       <c r="CE14" s="1">
-        <v>2187.530000</v>
+        <v>2187.5300000000002</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1744.100000</v>
+        <v>-1744.1</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>63562.802017</v>
+        <v>63562.802017000002</v>
       </c>
       <c r="B15" s="1">
-        <v>17.656334</v>
+        <v>17.656334000000001</v>
       </c>
       <c r="C15" s="1">
-        <v>1144.340000</v>
+        <v>1144.3399999999999</v>
       </c>
       <c r="D15" s="1">
-        <v>-261.248000</v>
+        <v>-261.24799999999999</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>63573.301825</v>
+        <v>63573.301825000002</v>
       </c>
       <c r="G15" s="1">
-        <v>17.659251</v>
+        <v>17.659251000000001</v>
       </c>
       <c r="H15" s="1">
-        <v>1167.020000</v>
+        <v>1167.02</v>
       </c>
       <c r="I15" s="1">
-        <v>-219.532000</v>
+        <v>-219.53200000000001</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>63583.554132</v>
+        <v>63583.554131999997</v>
       </c>
       <c r="L15" s="1">
         <v>17.662098</v>
       </c>
       <c r="M15" s="1">
-        <v>1195.400000</v>
+        <v>1195.4000000000001</v>
       </c>
       <c r="N15" s="1">
-        <v>-152.761000</v>
+        <v>-152.761</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>63593.783094</v>
+        <v>63593.783093999999</v>
       </c>
       <c r="Q15" s="1">
-        <v>17.664940</v>
+        <v>17.664940000000001</v>
       </c>
       <c r="R15" s="1">
-        <v>1203.550000</v>
+        <v>1203.55</v>
       </c>
       <c r="S15" s="1">
-        <v>-130.518000</v>
+        <v>-130.518</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>63603.889116</v>
+        <v>63603.889115999998</v>
       </c>
       <c r="V15" s="1">
-        <v>17.667747</v>
+        <v>17.667746999999999</v>
       </c>
       <c r="W15" s="1">
-        <v>1211.150000</v>
+        <v>1211.1500000000001</v>
       </c>
       <c r="X15" s="1">
-        <v>-109.317000</v>
+        <v>-109.31699999999999</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>63614.106171</v>
+        <v>63614.106170999999</v>
       </c>
       <c r="AA15" s="1">
-        <v>17.670585</v>
+        <v>17.670584999999999</v>
       </c>
       <c r="AB15" s="1">
-        <v>1218.760000</v>
+        <v>1218.76</v>
       </c>
       <c r="AC15" s="1">
-        <v>-91.822200</v>
+        <v>-91.822199999999995</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>63624.613454</v>
+        <v>63624.613453999998</v>
       </c>
       <c r="AF15" s="1">
-        <v>17.673504</v>
+        <v>17.673504000000001</v>
       </c>
       <c r="AG15" s="1">
-        <v>1223.440000</v>
+        <v>1223.44</v>
       </c>
       <c r="AH15" s="1">
-        <v>-87.033500</v>
+        <v>-87.033500000000004</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>63635.109766</v>
+        <v>63635.109766000001</v>
       </c>
       <c r="AK15" s="1">
-        <v>17.676419</v>
+        <v>17.676418999999999</v>
       </c>
       <c r="AL15" s="1">
-        <v>1230.620000</v>
+        <v>1230.6199999999999</v>
       </c>
       <c r="AM15" s="1">
-        <v>-90.244300</v>
+        <v>-90.244299999999996</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>63645.919110</v>
+        <v>63645.919110000003</v>
       </c>
       <c r="AP15" s="1">
-        <v>17.679422</v>
+        <v>17.679421999999999</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1238.590000</v>
+        <v>1238.5899999999999</v>
       </c>
       <c r="AR15" s="1">
-        <v>-102.161000</v>
+        <v>-102.161</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>63657.330530</v>
+        <v>63657.330529999999</v>
       </c>
       <c r="AU15" s="1">
         <v>17.682592</v>
       </c>
       <c r="AV15" s="1">
-        <v>1248.680000</v>
+        <v>1248.68</v>
       </c>
       <c r="AW15" s="1">
-        <v>-121.475000</v>
+        <v>-121.47499999999999</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>63668.418139</v>
+        <v>63668.418139000001</v>
       </c>
       <c r="AZ15" s="1">
         <v>17.685672</v>
       </c>
       <c r="BA15" s="1">
-        <v>1257.240000</v>
+        <v>1257.24</v>
       </c>
       <c r="BB15" s="1">
-        <v>-138.986000</v>
+        <v>-138.98599999999999</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
         <v>63679.430773</v>
       </c>
       <c r="BE15" s="1">
-        <v>17.688731</v>
+        <v>17.688731000000001</v>
       </c>
       <c r="BF15" s="1">
-        <v>1297.900000</v>
+        <v>1297.9000000000001</v>
       </c>
       <c r="BG15" s="1">
-        <v>-220.921000</v>
+        <v>-220.92099999999999</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>63690.584806</v>
+        <v>63690.584805999999</v>
       </c>
       <c r="BJ15" s="1">
-        <v>17.691829</v>
+        <v>17.691828999999998</v>
       </c>
       <c r="BK15" s="1">
-        <v>1368.360000</v>
+        <v>1368.36</v>
       </c>
       <c r="BL15" s="1">
-        <v>-356.842000</v>
+        <v>-356.84199999999998</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>63702.296374</v>
+        <v>63702.296373999998</v>
       </c>
       <c r="BO15" s="1">
-        <v>17.695082</v>
+        <v>17.695081999999999</v>
       </c>
       <c r="BP15" s="1">
-        <v>1483.830000</v>
+        <v>1483.83</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-577.490000</v>
+        <v>-577.49</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>63712.891425</v>
+        <v>63712.891425000002</v>
       </c>
       <c r="BT15" s="1">
-        <v>17.698025</v>
+        <v>17.698025000000001</v>
       </c>
       <c r="BU15" s="1">
-        <v>1617.190000</v>
+        <v>1617.19</v>
       </c>
       <c r="BV15" s="1">
-        <v>-826.384000</v>
+        <v>-826.38400000000001</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>63723.867882</v>
+        <v>63723.867881999999</v>
       </c>
       <c r="BY15" s="1">
-        <v>17.701074</v>
+        <v>17.701073999999998</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1770.170000</v>
+        <v>1770.17</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1095.100000</v>
+        <v>-1095.0999999999999</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>63736.006474</v>
+        <v>63736.006474000002</v>
       </c>
       <c r="CD15" s="1">
-        <v>17.704446</v>
+        <v>17.704446000000001</v>
       </c>
       <c r="CE15" s="1">
-        <v>2190.240000</v>
+        <v>2190.2399999999998</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1744.810000</v>
+        <v>-1744.81</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
         <v>63563.418029</v>
       </c>
       <c r="B16" s="1">
-        <v>17.656505</v>
+        <v>17.656504999999999</v>
       </c>
       <c r="C16" s="1">
-        <v>1144.480000</v>
+        <v>1144.48</v>
       </c>
       <c r="D16" s="1">
-        <v>-261.276000</v>
+        <v>-261.27600000000001</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>63573.738304</v>
+        <v>63573.738303999999</v>
       </c>
       <c r="G16" s="1">
-        <v>17.659372</v>
+        <v>17.659372000000001</v>
       </c>
       <c r="H16" s="1">
-        <v>1166.740000</v>
+        <v>1166.74</v>
       </c>
       <c r="I16" s="1">
-        <v>-219.925000</v>
+        <v>-219.92500000000001</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>63583.831424</v>
+        <v>63583.831424000004</v>
       </c>
       <c r="L16" s="1">
-        <v>17.662175</v>
+        <v>17.662175000000001</v>
       </c>
       <c r="M16" s="1">
-        <v>1195.190000</v>
+        <v>1195.19</v>
       </c>
       <c r="N16" s="1">
-        <v>-152.959000</v>
+        <v>-152.959</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>63594.064367</v>
+        <v>63594.064366999999</v>
       </c>
       <c r="Q16" s="1">
         <v>17.665018</v>
       </c>
       <c r="R16" s="1">
-        <v>1203.550000</v>
+        <v>1203.55</v>
       </c>
       <c r="S16" s="1">
-        <v>-130.545000</v>
+        <v>-130.54499999999999</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>63604.234792</v>
+        <v>63604.234792000003</v>
       </c>
       <c r="V16" s="1">
-        <v>17.667843</v>
+        <v>17.667843000000001</v>
       </c>
       <c r="W16" s="1">
-        <v>1211.050000</v>
+        <v>1211.05</v>
       </c>
       <c r="X16" s="1">
-        <v>-109.179000</v>
+        <v>-109.179</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>63614.455356</v>
+        <v>63614.455355999999</v>
       </c>
       <c r="AA16" s="1">
-        <v>17.670682</v>
+        <v>17.670681999999999</v>
       </c>
       <c r="AB16" s="1">
-        <v>1218.760000</v>
+        <v>1218.76</v>
       </c>
       <c r="AC16" s="1">
-        <v>-91.794100</v>
+        <v>-91.7941</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>63624.955164</v>
+        <v>63624.955163999999</v>
       </c>
       <c r="AF16" s="1">
-        <v>17.673599</v>
+        <v>17.673598999999999</v>
       </c>
       <c r="AG16" s="1">
-        <v>1223.590000</v>
+        <v>1223.5899999999999</v>
       </c>
       <c r="AH16" s="1">
-        <v>-87.007400</v>
+        <v>-87.007400000000004</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>63635.803663</v>
+        <v>63635.803662999999</v>
       </c>
       <c r="AK16" s="1">
-        <v>17.676612</v>
+        <v>17.676611999999999</v>
       </c>
       <c r="AL16" s="1">
-        <v>1230.610000</v>
+        <v>1230.6099999999999</v>
       </c>
       <c r="AM16" s="1">
-        <v>-90.266400</v>
+        <v>-90.266400000000004</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>63646.658149</v>
+        <v>63646.658149000003</v>
       </c>
       <c r="AP16" s="1">
         <v>17.679627</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1238.600000</v>
+        <v>1238.5999999999999</v>
       </c>
       <c r="AR16" s="1">
-        <v>-102.128000</v>
+        <v>-102.128</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>63657.721875</v>
+        <v>63657.721875000003</v>
       </c>
       <c r="AU16" s="1">
-        <v>17.682701</v>
+        <v>17.682701000000002</v>
       </c>
       <c r="AV16" s="1">
-        <v>1248.690000</v>
+        <v>1248.69</v>
       </c>
       <c r="AW16" s="1">
-        <v>-121.485000</v>
+        <v>-121.485</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>63668.794098</v>
+        <v>63668.794097999998</v>
       </c>
       <c r="AZ16" s="1">
-        <v>17.685776</v>
+        <v>17.685776000000001</v>
       </c>
       <c r="BA16" s="1">
-        <v>1257.250000</v>
+        <v>1257.25</v>
       </c>
       <c r="BB16" s="1">
-        <v>-138.981000</v>
+        <v>-138.98099999999999</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>63679.786901</v>
+        <v>63679.786900999999</v>
       </c>
       <c r="BE16" s="1">
-        <v>17.688830</v>
+        <v>17.688829999999999</v>
       </c>
       <c r="BF16" s="1">
-        <v>1297.900000</v>
+        <v>1297.9000000000001</v>
       </c>
       <c r="BG16" s="1">
-        <v>-220.910000</v>
+        <v>-220.91</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>63691.278709</v>
+        <v>63691.278708999998</v>
       </c>
       <c r="BJ16" s="1">
-        <v>17.692022</v>
+        <v>17.692022000000001</v>
       </c>
       <c r="BK16" s="1">
-        <v>1368.340000</v>
+        <v>1368.34</v>
       </c>
       <c r="BL16" s="1">
-        <v>-356.856000</v>
+        <v>-356.85599999999999</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>63702.406984</v>
+        <v>63702.406984000001</v>
       </c>
       <c r="BO16" s="1">
-        <v>17.695113</v>
+        <v>17.695112999999999</v>
       </c>
       <c r="BP16" s="1">
-        <v>1483.790000</v>
+        <v>1483.79</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-577.565000</v>
+        <v>-577.56500000000005</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>63713.383416</v>
+        <v>63713.383415999997</v>
       </c>
       <c r="BT16" s="1">
         <v>17.698162</v>
       </c>
       <c r="BU16" s="1">
-        <v>1617.080000</v>
+        <v>1617.08</v>
       </c>
       <c r="BV16" s="1">
-        <v>-826.448000</v>
+        <v>-826.44799999999998</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>63724.292922</v>
+        <v>63724.292922000001</v>
       </c>
       <c r="BY16" s="1">
-        <v>17.701192</v>
+        <v>17.701191999999999</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1770.100000</v>
+        <v>1770.1</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1095.050000</v>
+        <v>-1095.05</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>63736.544143</v>
+        <v>63736.544142999999</v>
       </c>
       <c r="CD16" s="1">
-        <v>17.704596</v>
+        <v>17.704595999999999</v>
       </c>
       <c r="CE16" s="1">
-        <v>2188.820000</v>
+        <v>2188.8200000000002</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1743.130000</v>
+        <v>-1743.13</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>63563.820270</v>
+        <v>63563.820269999997</v>
       </c>
       <c r="B17" s="1">
-        <v>17.656617</v>
+        <v>17.656617000000001</v>
       </c>
       <c r="C17" s="1">
-        <v>1144.390000</v>
+        <v>1144.3900000000001</v>
       </c>
       <c r="D17" s="1">
-        <v>-261.307000</v>
+        <v>-261.30700000000002</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>63573.990240</v>
+        <v>63573.990239999999</v>
       </c>
       <c r="G17" s="1">
-        <v>17.659442</v>
+        <v>17.659441999999999</v>
       </c>
       <c r="H17" s="1">
-        <v>1167.160000</v>
+        <v>1167.1600000000001</v>
       </c>
       <c r="I17" s="1">
-        <v>-219.447000</v>
+        <v>-219.447</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>63584.178563</v>
+        <v>63584.178563000001</v>
       </c>
       <c r="L17" s="1">
-        <v>17.662272</v>
+        <v>17.662272000000002</v>
       </c>
       <c r="M17" s="1">
-        <v>1195.340000</v>
+        <v>1195.3399999999999</v>
       </c>
       <c r="N17" s="1">
-        <v>-152.766000</v>
+        <v>-152.76599999999999</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>63594.412022</v>
+        <v>63594.412021999997</v>
       </c>
       <c r="Q17" s="1">
-        <v>17.665114</v>
+        <v>17.665113999999999</v>
       </c>
       <c r="R17" s="1">
-        <v>1203.520000</v>
+        <v>1203.52</v>
       </c>
       <c r="S17" s="1">
-        <v>-130.594000</v>
+        <v>-130.59399999999999</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>63604.577033</v>
+        <v>63604.577033000001</v>
       </c>
       <c r="V17" s="1">
-        <v>17.667938</v>
+        <v>17.667937999999999</v>
       </c>
       <c r="W17" s="1">
-        <v>1210.880000</v>
+        <v>1210.8800000000001</v>
       </c>
       <c r="X17" s="1">
-        <v>-109.344000</v>
+        <v>-109.34399999999999</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
         <v>63615.148793</v>
       </c>
       <c r="AA17" s="1">
-        <v>17.670875</v>
+        <v>17.670874999999999</v>
       </c>
       <c r="AB17" s="1">
-        <v>1218.620000</v>
+        <v>1218.6199999999999</v>
       </c>
       <c r="AC17" s="1">
-        <v>-91.774400</v>
+        <v>-91.7744</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>63625.642621</v>
+        <v>63625.642620999999</v>
       </c>
       <c r="AF17" s="1">
-        <v>17.673790</v>
+        <v>17.67379</v>
       </c>
       <c r="AG17" s="1">
-        <v>1223.440000</v>
+        <v>1223.44</v>
       </c>
       <c r="AH17" s="1">
-        <v>-87.170200</v>
+        <v>-87.170199999999994</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>63636.155358</v>
+        <v>63636.155358000004</v>
       </c>
       <c r="AK17" s="1">
-        <v>17.676710</v>
+        <v>17.67671</v>
       </c>
       <c r="AL17" s="1">
-        <v>1230.620000</v>
+        <v>1230.6199999999999</v>
       </c>
       <c r="AM17" s="1">
-        <v>-90.249000</v>
+        <v>-90.248999999999995</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>63646.998405</v>
+        <v>63646.998404999998</v>
       </c>
       <c r="AP17" s="1">
-        <v>17.679722</v>
+        <v>17.679722000000002</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1238.610000</v>
+        <v>1238.6099999999999</v>
       </c>
       <c r="AR17" s="1">
-        <v>-102.141000</v>
+        <v>-102.14100000000001</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>63658.083954</v>
+        <v>63658.083954000002</v>
       </c>
       <c r="AU17" s="1">
-        <v>17.682801</v>
+        <v>17.682801000000001</v>
       </c>
       <c r="AV17" s="1">
-        <v>1248.710000</v>
+        <v>1248.71</v>
       </c>
       <c r="AW17" s="1">
-        <v>-121.500000</v>
+        <v>-121.5</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>63669.469620</v>
+        <v>63669.469620000003</v>
       </c>
       <c r="AZ17" s="1">
-        <v>17.685964</v>
+        <v>17.685963999999998</v>
       </c>
       <c r="BA17" s="1">
-        <v>1257.220000</v>
+        <v>1257.22</v>
       </c>
       <c r="BB17" s="1">
-        <v>-138.962000</v>
+        <v>-138.96199999999999</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>63680.511557</v>
+        <v>63680.511556999998</v>
       </c>
       <c r="BE17" s="1">
         <v>17.689031</v>
       </c>
       <c r="BF17" s="1">
-        <v>1297.910000</v>
+        <v>1297.9100000000001</v>
       </c>
       <c r="BG17" s="1">
-        <v>-220.898000</v>
+        <v>-220.898</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>63691.711221</v>
+        <v>63691.711220999998</v>
       </c>
       <c r="BJ17" s="1">
         <v>17.692142</v>
       </c>
       <c r="BK17" s="1">
-        <v>1368.340000</v>
+        <v>1368.34</v>
       </c>
       <c r="BL17" s="1">
-        <v>-356.832000</v>
+        <v>-356.83199999999999</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>63702.828055</v>
+        <v>63702.828054999998</v>
       </c>
       <c r="BO17" s="1">
-        <v>17.695230</v>
+        <v>17.695229999999999</v>
       </c>
       <c r="BP17" s="1">
-        <v>1483.800000</v>
+        <v>1483.8</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-577.601000</v>
+        <v>-577.601</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>63713.818438</v>
+        <v>63713.818438000002</v>
       </c>
       <c r="BT17" s="1">
         <v>17.698283</v>
       </c>
       <c r="BU17" s="1">
-        <v>1617.030000</v>
+        <v>1617.03</v>
       </c>
       <c r="BV17" s="1">
-        <v>-826.380000</v>
+        <v>-826.38</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>63724.740840</v>
+        <v>63724.740839999999</v>
       </c>
       <c r="BY17" s="1">
         <v>17.701317</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1770.270000</v>
+        <v>1770.27</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1094.880000</v>
+        <v>-1094.8800000000001</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>63737.083256</v>
+        <v>63737.083255999998</v>
       </c>
       <c r="CD17" s="1">
-        <v>17.704745</v>
+        <v>17.704744999999999</v>
       </c>
       <c r="CE17" s="1">
-        <v>2188.100000</v>
+        <v>2188.1</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1745.460000</v>
+        <v>-1745.46</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>63564.163997</v>
+        <v>63564.163997000003</v>
       </c>
       <c r="B18" s="1">
-        <v>17.656712</v>
+        <v>17.656711999999999</v>
       </c>
       <c r="C18" s="1">
-        <v>1144.400000</v>
+        <v>1144.4000000000001</v>
       </c>
       <c r="D18" s="1">
-        <v>-261.485000</v>
+        <v>-261.48500000000001</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>63574.335952</v>
+        <v>63574.335952000001</v>
       </c>
       <c r="G18" s="1">
-        <v>17.659538</v>
+        <v>17.659538000000001</v>
       </c>
       <c r="H18" s="1">
-        <v>1166.490000</v>
+        <v>1166.49</v>
       </c>
       <c r="I18" s="1">
-        <v>-220.212000</v>
+        <v>-220.21199999999999</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>63584.522786</v>
+        <v>63584.522786000001</v>
       </c>
       <c r="L18" s="1">
         <v>17.662367</v>
       </c>
       <c r="M18" s="1">
-        <v>1195.430000</v>
+        <v>1195.43</v>
       </c>
       <c r="N18" s="1">
-        <v>-153.155000</v>
+        <v>-153.155</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>63594.763795</v>
+        <v>63594.763794999999</v>
       </c>
       <c r="Q18" s="1">
         <v>17.665212</v>
       </c>
       <c r="R18" s="1">
-        <v>1203.430000</v>
+        <v>1203.43</v>
       </c>
       <c r="S18" s="1">
-        <v>-130.550000</v>
+        <v>-130.55000000000001</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>63605.263495</v>
+        <v>63605.263494999999</v>
       </c>
       <c r="V18" s="1">
         <v>17.668129</v>
       </c>
       <c r="W18" s="1">
-        <v>1211.050000</v>
+        <v>1211.05</v>
       </c>
       <c r="X18" s="1">
-        <v>-109.338000</v>
+        <v>-109.33799999999999</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>63615.499433</v>
+        <v>63615.499432999997</v>
       </c>
       <c r="AA18" s="1">
-        <v>17.670972</v>
+        <v>17.670971999999999</v>
       </c>
       <c r="AB18" s="1">
-        <v>1218.750000</v>
+        <v>1218.75</v>
       </c>
       <c r="AC18" s="1">
-        <v>-91.732500</v>
+        <v>-91.732500000000002</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>63625.984896</v>
+        <v>63625.984896000002</v>
       </c>
       <c r="AF18" s="1">
-        <v>17.673885</v>
+        <v>17.673884999999999</v>
       </c>
       <c r="AG18" s="1">
-        <v>1223.510000</v>
+        <v>1223.51</v>
       </c>
       <c r="AH18" s="1">
-        <v>-87.162200</v>
+        <v>-87.162199999999999</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>63636.501535</v>
+        <v>63636.501535000003</v>
       </c>
       <c r="AK18" s="1">
-        <v>17.676806</v>
+        <v>17.676805999999999</v>
       </c>
       <c r="AL18" s="1">
-        <v>1230.610000</v>
+        <v>1230.6099999999999</v>
       </c>
       <c r="AM18" s="1">
-        <v>-90.291300</v>
+        <v>-90.291300000000007</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>63647.664000</v>
+        <v>63647.663999999997</v>
       </c>
       <c r="AP18" s="1">
         <v>17.679907</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1238.620000</v>
+        <v>1238.6199999999999</v>
       </c>
       <c r="AR18" s="1">
-        <v>-102.155000</v>
+        <v>-102.155</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>63658.757549</v>
+        <v>63658.757549000002</v>
       </c>
       <c r="AU18" s="1">
-        <v>17.682988</v>
+        <v>17.682988000000002</v>
       </c>
       <c r="AV18" s="1">
-        <v>1248.700000</v>
+        <v>1248.7</v>
       </c>
       <c r="AW18" s="1">
-        <v>-121.469000</v>
+        <v>-121.46899999999999</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>63669.879313</v>
+        <v>63669.879312999998</v>
       </c>
       <c r="AZ18" s="1">
-        <v>17.686078</v>
+        <v>17.686077999999998</v>
       </c>
       <c r="BA18" s="1">
-        <v>1257.240000</v>
+        <v>1257.24</v>
       </c>
       <c r="BB18" s="1">
-        <v>-138.978000</v>
+        <v>-138.97800000000001</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>63680.897443</v>
+        <v>63680.897443000002</v>
       </c>
       <c r="BE18" s="1">
         <v>17.689138</v>
       </c>
       <c r="BF18" s="1">
-        <v>1297.920000</v>
+        <v>1297.92</v>
       </c>
       <c r="BG18" s="1">
-        <v>-220.905000</v>
+        <v>-220.905</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>63692.090696</v>
+        <v>63692.090695999999</v>
       </c>
       <c r="BJ18" s="1">
-        <v>17.692247</v>
+        <v>17.692246999999998</v>
       </c>
       <c r="BK18" s="1">
-        <v>1368.370000</v>
+        <v>1368.37</v>
       </c>
       <c r="BL18" s="1">
-        <v>-356.861000</v>
+        <v>-356.86099999999999</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>63703.227333</v>
+        <v>63703.227333000003</v>
       </c>
       <c r="BO18" s="1">
-        <v>17.695341</v>
+        <v>17.695340999999999</v>
       </c>
       <c r="BP18" s="1">
-        <v>1483.820000</v>
+        <v>1483.82</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-577.500000</v>
+        <v>-577.5</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>63714.241031</v>
+        <v>63714.241030999998</v>
       </c>
       <c r="BT18" s="1">
-        <v>17.698400</v>
+        <v>17.698399999999999</v>
       </c>
       <c r="BU18" s="1">
-        <v>1616.910000</v>
+        <v>1616.91</v>
       </c>
       <c r="BV18" s="1">
-        <v>-826.403000</v>
+        <v>-826.40300000000002</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>63725.172328</v>
+        <v>63725.172328000001</v>
       </c>
       <c r="BY18" s="1">
-        <v>17.701437</v>
+        <v>17.701436999999999</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1770.130000</v>
+        <v>1770.13</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1094.960000</v>
+        <v>-1094.96</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>63737.624392</v>
+        <v>63737.624391999998</v>
       </c>
       <c r="CD18" s="1">
-        <v>17.704896</v>
+        <v>17.704896000000002</v>
       </c>
       <c r="CE18" s="1">
-        <v>2190.280000</v>
+        <v>2190.2800000000002</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1743.570000</v>
+        <v>-1743.57</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>63564.513678</v>
+        <v>63564.513678000003</v>
       </c>
       <c r="B19" s="1">
-        <v>17.656809</v>
+        <v>17.656808999999999</v>
       </c>
       <c r="C19" s="1">
-        <v>1144.290000</v>
+        <v>1144.29</v>
       </c>
       <c r="D19" s="1">
-        <v>-261.325000</v>
+        <v>-261.32499999999999</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>63574.680713</v>
+        <v>63574.680713000002</v>
       </c>
       <c r="G19" s="1">
         <v>17.659634</v>
       </c>
       <c r="H19" s="1">
-        <v>1166.910000</v>
+        <v>1166.9100000000001</v>
       </c>
       <c r="I19" s="1">
-        <v>-219.130000</v>
+        <v>-219.13</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>63585.214714</v>
+        <v>63585.214714000002</v>
       </c>
       <c r="L19" s="1">
-        <v>17.662560</v>
+        <v>17.662559999999999</v>
       </c>
       <c r="M19" s="1">
-        <v>1195.260000</v>
+        <v>1195.26</v>
       </c>
       <c r="N19" s="1">
-        <v>-152.858000</v>
+        <v>-152.858</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>63595.459076</v>
+        <v>63595.459075999999</v>
       </c>
       <c r="Q19" s="1">
         <v>17.665405</v>
       </c>
       <c r="R19" s="1">
-        <v>1203.420000</v>
+        <v>1203.42</v>
       </c>
       <c r="S19" s="1">
-        <v>-130.539000</v>
+        <v>-130.53899999999999</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>63605.603254</v>
+        <v>63605.603254000001</v>
       </c>
       <c r="V19" s="1">
-        <v>17.668223</v>
+        <v>17.668223000000001</v>
       </c>
       <c r="W19" s="1">
-        <v>1211.050000</v>
+        <v>1211.05</v>
       </c>
       <c r="X19" s="1">
-        <v>-109.185000</v>
+        <v>-109.185</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
         <v>63615.851099</v>
       </c>
       <c r="AA19" s="1">
-        <v>17.671070</v>
+        <v>17.67107</v>
       </c>
       <c r="AB19" s="1">
-        <v>1218.700000</v>
+        <v>1218.7</v>
       </c>
       <c r="AC19" s="1">
-        <v>-91.799200</v>
+        <v>-91.799199999999999</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>63626.327595</v>
+        <v>63626.327595000002</v>
       </c>
       <c r="AF19" s="1">
-        <v>17.673980</v>
+        <v>17.67398</v>
       </c>
       <c r="AG19" s="1">
-        <v>1223.500000</v>
+        <v>1223.5</v>
       </c>
       <c r="AH19" s="1">
-        <v>-87.045100</v>
+        <v>-87.045100000000005</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>63637.168691</v>
+        <v>63637.168690999999</v>
       </c>
       <c r="AK19" s="1">
-        <v>17.676991</v>
+        <v>17.676991000000001</v>
       </c>
       <c r="AL19" s="1">
-        <v>1230.620000</v>
+        <v>1230.6199999999999</v>
       </c>
       <c r="AM19" s="1">
-        <v>-90.277300</v>
+        <v>-90.277299999999997</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>63648.103454</v>
+        <v>63648.103453999996</v>
       </c>
       <c r="AP19" s="1">
-        <v>17.680029</v>
+        <v>17.680029000000001</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1238.600000</v>
+        <v>1238.5999999999999</v>
       </c>
       <c r="AR19" s="1">
-        <v>-102.129000</v>
+        <v>-102.129</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
         <v>63659.210863</v>
@@ -4985,844 +5401,844 @@
         <v>17.683114</v>
       </c>
       <c r="AV19" s="1">
-        <v>1248.680000</v>
+        <v>1248.68</v>
       </c>
       <c r="AW19" s="1">
-        <v>-121.486000</v>
+        <v>-121.486</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>63670.256274</v>
+        <v>63670.256273999999</v>
       </c>
       <c r="AZ19" s="1">
-        <v>17.686182</v>
+        <v>17.686181999999999</v>
       </c>
       <c r="BA19" s="1">
-        <v>1257.240000</v>
+        <v>1257.24</v>
       </c>
       <c r="BB19" s="1">
-        <v>-139.001000</v>
+        <v>-139.001</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>63681.258066</v>
+        <v>63681.258066000002</v>
       </c>
       <c r="BE19" s="1">
         <v>17.689238</v>
       </c>
       <c r="BF19" s="1">
-        <v>1297.880000</v>
+        <v>1297.8800000000001</v>
       </c>
       <c r="BG19" s="1">
-        <v>-220.909000</v>
+        <v>-220.90899999999999</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>63692.461210</v>
+        <v>63692.461210000001</v>
       </c>
       <c r="BJ19" s="1">
-        <v>17.692350</v>
+        <v>17.692350000000001</v>
       </c>
       <c r="BK19" s="1">
-        <v>1368.330000</v>
+        <v>1368.33</v>
       </c>
       <c r="BL19" s="1">
-        <v>-356.844000</v>
+        <v>-356.84399999999999</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>63703.648474</v>
+        <v>63703.648474000001</v>
       </c>
       <c r="BO19" s="1">
-        <v>17.695458</v>
+        <v>17.695457999999999</v>
       </c>
       <c r="BP19" s="1">
-        <v>1483.810000</v>
+        <v>1483.81</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-577.508000</v>
+        <v>-577.50800000000004</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>63714.660150</v>
+        <v>63714.660150000003</v>
       </c>
       <c r="BT19" s="1">
-        <v>17.698517</v>
+        <v>17.698516999999999</v>
       </c>
       <c r="BU19" s="1">
-        <v>1616.740000</v>
+        <v>1616.74</v>
       </c>
       <c r="BV19" s="1">
-        <v>-826.359000</v>
+        <v>-826.35900000000004</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>63725.593927</v>
+        <v>63725.593927000002</v>
       </c>
       <c r="BY19" s="1">
-        <v>17.701554</v>
+        <v>17.701554000000002</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1770.260000</v>
+        <v>1770.26</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1095.010000</v>
+        <v>-1095.01</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>63738.164536</v>
+        <v>63738.164535999997</v>
       </c>
       <c r="CD19" s="1">
-        <v>17.705046</v>
+        <v>17.705045999999999</v>
       </c>
       <c r="CE19" s="1">
-        <v>2187.450000</v>
+        <v>2187.4499999999998</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1743.640000</v>
+        <v>-1743.64</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>63565.192236</v>
+        <v>63565.192236000003</v>
       </c>
       <c r="B20" s="1">
-        <v>17.656998</v>
+        <v>17.656998000000002</v>
       </c>
       <c r="C20" s="1">
-        <v>1144.240000</v>
+        <v>1144.24</v>
       </c>
       <c r="D20" s="1">
-        <v>-261.263000</v>
+        <v>-261.26299999999998</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>63575.366671</v>
+        <v>63575.366671000003</v>
       </c>
       <c r="G20" s="1">
         <v>17.659824</v>
       </c>
       <c r="H20" s="1">
-        <v>1166.390000</v>
+        <v>1166.3900000000001</v>
       </c>
       <c r="I20" s="1">
-        <v>-219.141000</v>
+        <v>-219.14099999999999</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>63585.561409</v>
+        <v>63585.561409000002</v>
       </c>
       <c r="L20" s="1">
-        <v>17.662656</v>
+        <v>17.662655999999998</v>
       </c>
       <c r="M20" s="1">
-        <v>1195.520000</v>
+        <v>1195.52</v>
       </c>
       <c r="N20" s="1">
-        <v>-152.822000</v>
+        <v>-152.822</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>63595.809784</v>
+        <v>63595.809783999997</v>
       </c>
       <c r="Q20" s="1">
-        <v>17.665503</v>
+        <v>17.665503000000001</v>
       </c>
       <c r="R20" s="1">
-        <v>1203.460000</v>
+        <v>1203.46</v>
       </c>
       <c r="S20" s="1">
-        <v>-130.516000</v>
+        <v>-130.51599999999999</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>63605.948966</v>
+        <v>63605.948966000004</v>
       </c>
       <c r="V20" s="1">
         <v>17.668319</v>
       </c>
       <c r="W20" s="1">
-        <v>1210.920000</v>
+        <v>1210.92</v>
       </c>
       <c r="X20" s="1">
-        <v>-109.257000</v>
+        <v>-109.25700000000001</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>63616.504860</v>
+        <v>63616.504860000001</v>
       </c>
       <c r="AA20" s="1">
-        <v>17.671251</v>
+        <v>17.671251000000002</v>
       </c>
       <c r="AB20" s="1">
-        <v>1218.700000</v>
+        <v>1218.7</v>
       </c>
       <c r="AC20" s="1">
-        <v>-91.783800</v>
+        <v>-91.783799999999999</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
         <v>63626.981818</v>
       </c>
       <c r="AF20" s="1">
-        <v>17.674162</v>
+        <v>17.674161999999999</v>
       </c>
       <c r="AG20" s="1">
-        <v>1223.500000</v>
+        <v>1223.5</v>
       </c>
       <c r="AH20" s="1">
-        <v>-87.061900</v>
+        <v>-87.061899999999994</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>63637.549084</v>
+        <v>63637.549083999998</v>
       </c>
       <c r="AK20" s="1">
         <v>17.677097</v>
       </c>
       <c r="AL20" s="1">
-        <v>1230.590000</v>
+        <v>1230.5899999999999</v>
       </c>
       <c r="AM20" s="1">
-        <v>-90.260900</v>
+        <v>-90.260900000000007</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>63648.461597</v>
+        <v>63648.461597000001</v>
       </c>
       <c r="AP20" s="1">
         <v>17.680128</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1238.660000</v>
+        <v>1238.6600000000001</v>
       </c>
       <c r="AR20" s="1">
-        <v>-102.124000</v>
+        <v>-102.124</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>63659.577904</v>
+        <v>63659.577903999998</v>
       </c>
       <c r="AU20" s="1">
-        <v>17.683216</v>
+        <v>17.683216000000002</v>
       </c>
       <c r="AV20" s="1">
-        <v>1248.680000</v>
+        <v>1248.68</v>
       </c>
       <c r="AW20" s="1">
-        <v>-121.460000</v>
+        <v>-121.46</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>63670.634752</v>
+        <v>63670.634751999998</v>
       </c>
       <c r="AZ20" s="1">
         <v>17.686287</v>
       </c>
       <c r="BA20" s="1">
-        <v>1257.240000</v>
+        <v>1257.24</v>
       </c>
       <c r="BB20" s="1">
-        <v>-139.003000</v>
+        <v>-139.00299999999999</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>63681.687111</v>
+        <v>63681.687110999999</v>
       </c>
       <c r="BE20" s="1">
-        <v>17.689358</v>
+        <v>17.689357999999999</v>
       </c>
       <c r="BF20" s="1">
-        <v>1297.920000</v>
+        <v>1297.92</v>
       </c>
       <c r="BG20" s="1">
-        <v>-220.890000</v>
+        <v>-220.89</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>63692.889758</v>
+        <v>63692.889757999998</v>
       </c>
       <c r="BJ20" s="1">
-        <v>17.692469</v>
+        <v>17.692468999999999</v>
       </c>
       <c r="BK20" s="1">
-        <v>1368.350000</v>
+        <v>1368.35</v>
       </c>
       <c r="BL20" s="1">
-        <v>-356.877000</v>
+        <v>-356.87700000000001</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>63704.045238</v>
+        <v>63704.045237999999</v>
       </c>
       <c r="BO20" s="1">
-        <v>17.695568</v>
+        <v>17.695568000000002</v>
       </c>
       <c r="BP20" s="1">
-        <v>1483.880000</v>
+        <v>1483.88</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-577.508000</v>
+        <v>-577.50800000000004</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>63715.087175</v>
+        <v>63715.087175000001</v>
       </c>
       <c r="BT20" s="1">
-        <v>17.698635</v>
+        <v>17.698634999999999</v>
       </c>
       <c r="BU20" s="1">
-        <v>1616.710000</v>
+        <v>1616.71</v>
       </c>
       <c r="BV20" s="1">
-        <v>-826.368000</v>
+        <v>-826.36800000000005</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>63726.017015</v>
+        <v>63726.017014999998</v>
       </c>
       <c r="BY20" s="1">
-        <v>17.701671</v>
+        <v>17.701671000000001</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1770.240000</v>
+        <v>1770.24</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1095.000000</v>
+        <v>-1095</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>63738.703719</v>
+        <v>63738.703718999997</v>
       </c>
       <c r="CD20" s="1">
         <v>17.705195</v>
       </c>
       <c r="CE20" s="1">
-        <v>2190.250000</v>
+        <v>2190.25</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1744.840000</v>
+        <v>-1744.84</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>63565.533947</v>
+        <v>63565.533947000004</v>
       </c>
       <c r="B21" s="1">
         <v>17.657093</v>
       </c>
       <c r="C21" s="1">
-        <v>1144.040000</v>
+        <v>1144.04</v>
       </c>
       <c r="D21" s="1">
-        <v>-261.186000</v>
+        <v>-261.18599999999998</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>63575.714831</v>
+        <v>63575.714830999998</v>
       </c>
       <c r="G21" s="1">
-        <v>17.659921</v>
+        <v>17.659921000000001</v>
       </c>
       <c r="H21" s="1">
-        <v>1166.040000</v>
+        <v>1166.04</v>
       </c>
       <c r="I21" s="1">
-        <v>-220.005000</v>
+        <v>-220.005</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>63585.907122</v>
+        <v>63585.907121999997</v>
       </c>
       <c r="L21" s="1">
-        <v>17.662752</v>
+        <v>17.662752000000001</v>
       </c>
       <c r="M21" s="1">
-        <v>1195.250000</v>
+        <v>1195.25</v>
       </c>
       <c r="N21" s="1">
-        <v>-152.972000</v>
+        <v>-152.97200000000001</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>63596.163716</v>
+        <v>63596.163716000003</v>
       </c>
       <c r="Q21" s="1">
-        <v>17.665601</v>
+        <v>17.665600999999999</v>
       </c>
       <c r="R21" s="1">
-        <v>1203.530000</v>
+        <v>1203.53</v>
       </c>
       <c r="S21" s="1">
-        <v>-130.591000</v>
+        <v>-130.59100000000001</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
         <v>63606.620551</v>
       </c>
       <c r="V21" s="1">
-        <v>17.668506</v>
+        <v>17.668506000000001</v>
       </c>
       <c r="W21" s="1">
-        <v>1211.030000</v>
+        <v>1211.03</v>
       </c>
       <c r="X21" s="1">
-        <v>-109.215000</v>
+        <v>-109.215</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>63616.895671</v>
+        <v>63616.895670999998</v>
       </c>
       <c r="AA21" s="1">
-        <v>17.671360</v>
+        <v>17.67136</v>
       </c>
       <c r="AB21" s="1">
-        <v>1218.730000</v>
+        <v>1218.73</v>
       </c>
       <c r="AC21" s="1">
-        <v>-91.827500</v>
+        <v>-91.827500000000001</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>63627.356297</v>
+        <v>63627.356296999998</v>
       </c>
       <c r="AF21" s="1">
-        <v>17.674266</v>
+        <v>17.674265999999999</v>
       </c>
       <c r="AG21" s="1">
-        <v>1223.470000</v>
+        <v>1223.47</v>
       </c>
       <c r="AH21" s="1">
-        <v>-87.092300</v>
+        <v>-87.092299999999994</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>63637.898764</v>
+        <v>63637.898763999998</v>
       </c>
       <c r="AK21" s="1">
         <v>17.677194</v>
       </c>
       <c r="AL21" s="1">
-        <v>1230.610000</v>
+        <v>1230.6099999999999</v>
       </c>
       <c r="AM21" s="1">
-        <v>-90.284000</v>
+        <v>-90.284000000000006</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>63648.820670</v>
+        <v>63648.820670000001</v>
       </c>
       <c r="AP21" s="1">
         <v>17.680228</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1238.610000</v>
+        <v>1238.6099999999999</v>
       </c>
       <c r="AR21" s="1">
-        <v>-102.124000</v>
+        <v>-102.124</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>63659.942963</v>
+        <v>63659.942963000001</v>
       </c>
       <c r="AU21" s="1">
-        <v>17.683317</v>
+        <v>17.683316999999999</v>
       </c>
       <c r="AV21" s="1">
-        <v>1248.690000</v>
+        <v>1248.69</v>
       </c>
       <c r="AW21" s="1">
-        <v>-121.457000</v>
+        <v>-121.45699999999999</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>63671.051360</v>
+        <v>63671.051359999998</v>
       </c>
       <c r="AZ21" s="1">
-        <v>17.686403</v>
+        <v>17.686402999999999</v>
       </c>
       <c r="BA21" s="1">
-        <v>1257.250000</v>
+        <v>1257.25</v>
       </c>
       <c r="BB21" s="1">
-        <v>-138.981000</v>
+        <v>-138.98099999999999</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>63681.982194</v>
+        <v>63681.982193999997</v>
       </c>
       <c r="BE21" s="1">
         <v>17.689439</v>
       </c>
       <c r="BF21" s="1">
-        <v>1297.880000</v>
+        <v>1297.8800000000001</v>
       </c>
       <c r="BG21" s="1">
-        <v>-220.899000</v>
+        <v>-220.899</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>63693.235426</v>
+        <v>63693.235425999999</v>
       </c>
       <c r="BJ21" s="1">
-        <v>17.692565</v>
+        <v>17.692564999999998</v>
       </c>
       <c r="BK21" s="1">
-        <v>1368.320000</v>
+        <v>1368.32</v>
       </c>
       <c r="BL21" s="1">
-        <v>-356.883000</v>
+        <v>-356.88299999999998</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>63704.469317</v>
+        <v>63704.469317000003</v>
       </c>
       <c r="BO21" s="1">
-        <v>17.695686</v>
+        <v>17.695685999999998</v>
       </c>
       <c r="BP21" s="1">
-        <v>1483.850000</v>
+        <v>1483.85</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-577.503000</v>
+        <v>-577.50300000000004</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>63715.498890</v>
+        <v>63715.498890000003</v>
       </c>
       <c r="BT21" s="1">
-        <v>17.698750</v>
+        <v>17.69875</v>
       </c>
       <c r="BU21" s="1">
-        <v>1616.560000</v>
+        <v>1616.56</v>
       </c>
       <c r="BV21" s="1">
-        <v>-826.236000</v>
+        <v>-826.23599999999999</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>63726.441096</v>
+        <v>63726.441096000002</v>
       </c>
       <c r="BY21" s="1">
-        <v>17.701789</v>
+        <v>17.701789000000002</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1770.110000</v>
+        <v>1770.11</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1094.800000</v>
+        <v>-1094.8</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>63739.244857</v>
+        <v>63739.244856999998</v>
       </c>
       <c r="CD21" s="1">
-        <v>17.705346</v>
+        <v>17.705345999999999</v>
       </c>
       <c r="CE21" s="1">
-        <v>2189.090000</v>
+        <v>2189.09</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1743.080000</v>
+        <v>-1743.08</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>63565.883134</v>
+        <v>63565.883134000003</v>
       </c>
       <c r="B22" s="1">
-        <v>17.657190</v>
+        <v>17.65719</v>
       </c>
       <c r="C22" s="1">
-        <v>1144.580000</v>
+        <v>1144.58</v>
       </c>
       <c r="D22" s="1">
-        <v>-261.374000</v>
+        <v>-261.37400000000002</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>63576.059054</v>
+        <v>63576.059053999998</v>
       </c>
       <c r="G22" s="1">
-        <v>17.660016</v>
+        <v>17.660015999999999</v>
       </c>
       <c r="H22" s="1">
-        <v>1167.430000</v>
+        <v>1167.43</v>
       </c>
       <c r="I22" s="1">
-        <v>-219.179000</v>
+        <v>-219.179</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>63586.564319</v>
+        <v>63586.564318999997</v>
       </c>
       <c r="L22" s="1">
-        <v>17.662935</v>
+        <v>17.662935000000001</v>
       </c>
       <c r="M22" s="1">
-        <v>1195.190000</v>
+        <v>1195.19</v>
       </c>
       <c r="N22" s="1">
-        <v>-153.076000</v>
+        <v>-153.07599999999999</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>63596.862295</v>
+        <v>63596.862294999999</v>
       </c>
       <c r="Q22" s="1">
-        <v>17.665795</v>
+        <v>17.665794999999999</v>
       </c>
       <c r="R22" s="1">
-        <v>1203.470000</v>
+        <v>1203.47</v>
       </c>
       <c r="S22" s="1">
-        <v>-130.651000</v>
+        <v>-130.65100000000001</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>63606.987093</v>
+        <v>63606.987093000003</v>
       </c>
       <c r="V22" s="1">
-        <v>17.668608</v>
+        <v>17.668607999999999</v>
       </c>
       <c r="W22" s="1">
-        <v>1210.980000</v>
+        <v>1210.98</v>
       </c>
       <c r="X22" s="1">
-        <v>-109.415000</v>
+        <v>-109.41500000000001</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>63617.240920</v>
+        <v>63617.240919999997</v>
       </c>
       <c r="AA22" s="1">
-        <v>17.671456</v>
+        <v>17.671455999999999</v>
       </c>
       <c r="AB22" s="1">
-        <v>1218.680000</v>
+        <v>1218.68</v>
       </c>
       <c r="AC22" s="1">
-        <v>-91.851900</v>
+        <v>-91.851900000000001</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>63627.702041</v>
+        <v>63627.702040999997</v>
       </c>
       <c r="AF22" s="1">
-        <v>17.674362</v>
+        <v>17.674361999999999</v>
       </c>
       <c r="AG22" s="1">
-        <v>1223.450000</v>
+        <v>1223.45</v>
       </c>
       <c r="AH22" s="1">
-        <v>-87.096900</v>
+        <v>-87.096900000000005</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>63638.242989</v>
+        <v>63638.242988999998</v>
       </c>
       <c r="AK22" s="1">
-        <v>17.677290</v>
+        <v>17.677289999999999</v>
       </c>
       <c r="AL22" s="1">
-        <v>1230.590000</v>
+        <v>1230.5899999999999</v>
       </c>
       <c r="AM22" s="1">
-        <v>-90.242200</v>
+        <v>-90.242199999999997</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>63649.246236</v>
+        <v>63649.246235999999</v>
       </c>
       <c r="AP22" s="1">
         <v>17.680346</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1238.610000</v>
+        <v>1238.6099999999999</v>
       </c>
       <c r="AR22" s="1">
-        <v>-102.136000</v>
+        <v>-102.136</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>63660.362574</v>
+        <v>63660.362573999999</v>
       </c>
       <c r="AU22" s="1">
-        <v>17.683434</v>
+        <v>17.683433999999998</v>
       </c>
       <c r="AV22" s="1">
-        <v>1248.710000</v>
+        <v>1248.71</v>
       </c>
       <c r="AW22" s="1">
-        <v>-121.504000</v>
+        <v>-121.504</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>63671.350447</v>
+        <v>63671.350446999997</v>
       </c>
       <c r="AZ22" s="1">
-        <v>17.686486</v>
+        <v>17.686485999999999</v>
       </c>
       <c r="BA22" s="1">
-        <v>1257.270000</v>
+        <v>1257.27</v>
       </c>
       <c r="BB22" s="1">
-        <v>-139.001000</v>
+        <v>-139.001</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>63682.343281</v>
+        <v>63682.343281000001</v>
       </c>
       <c r="BE22" s="1">
-        <v>17.689540</v>
+        <v>17.689540000000001</v>
       </c>
       <c r="BF22" s="1">
-        <v>1297.910000</v>
+        <v>1297.9100000000001</v>
       </c>
       <c r="BG22" s="1">
-        <v>-220.894000</v>
+        <v>-220.89400000000001</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>63693.611922</v>
+        <v>63693.611921999996</v>
       </c>
       <c r="BJ22" s="1">
-        <v>17.692670</v>
+        <v>17.69267</v>
       </c>
       <c r="BK22" s="1">
-        <v>1368.370000</v>
+        <v>1368.37</v>
       </c>
       <c r="BL22" s="1">
-        <v>-356.872000</v>
+        <v>-356.87200000000001</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>63704.866117</v>
+        <v>63704.866116999998</v>
       </c>
       <c r="BO22" s="1">
-        <v>17.695796</v>
+        <v>17.695796000000001</v>
       </c>
       <c r="BP22" s="1">
-        <v>1483.810000</v>
+        <v>1483.81</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-577.600000</v>
+        <v>-577.6</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
         <v>63715.933846</v>
@@ -5831,497 +6247,497 @@
         <v>17.698871</v>
       </c>
       <c r="BU22" s="1">
-        <v>1616.600000</v>
+        <v>1616.6</v>
       </c>
       <c r="BV22" s="1">
-        <v>-826.268000</v>
+        <v>-826.26800000000003</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>63726.871654</v>
+        <v>63726.871654000002</v>
       </c>
       <c r="BY22" s="1">
-        <v>17.701909</v>
+        <v>17.701909000000001</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1770.150000</v>
+        <v>1770.15</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1095.010000</v>
+        <v>-1095.01</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>63739.784272</v>
+        <v>63739.784271999997</v>
       </c>
       <c r="CD22" s="1">
         <v>17.705496</v>
       </c>
       <c r="CE22" s="1">
-        <v>2188.170000</v>
+        <v>2188.17</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1744.890000</v>
+        <v>-1744.89</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>63566.539834</v>
+        <v>63566.539834000003</v>
       </c>
       <c r="B23" s="1">
-        <v>17.657372</v>
+        <v>17.657371999999999</v>
       </c>
       <c r="C23" s="1">
-        <v>1144.170000</v>
+        <v>1144.17</v>
       </c>
       <c r="D23" s="1">
-        <v>-261.190000</v>
+        <v>-261.19</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
         <v>63576.721244</v>
       </c>
       <c r="G23" s="1">
-        <v>17.660200</v>
+        <v>17.6602</v>
       </c>
       <c r="H23" s="1">
-        <v>1165.780000</v>
+        <v>1165.78</v>
       </c>
       <c r="I23" s="1">
-        <v>-219.161000</v>
+        <v>-219.161</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>63586.943265</v>
+        <v>63586.943265000002</v>
       </c>
       <c r="L23" s="1">
-        <v>17.663040</v>
+        <v>17.663039999999999</v>
       </c>
       <c r="M23" s="1">
-        <v>1195.190000</v>
+        <v>1195.19</v>
       </c>
       <c r="N23" s="1">
-        <v>-152.932000</v>
+        <v>-152.93199999999999</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>63597.210977</v>
+        <v>63597.210977000002</v>
       </c>
       <c r="Q23" s="1">
-        <v>17.665892</v>
+        <v>17.665891999999999</v>
       </c>
       <c r="R23" s="1">
-        <v>1203.440000</v>
+        <v>1203.44</v>
       </c>
       <c r="S23" s="1">
-        <v>-130.610000</v>
+        <v>-130.61000000000001</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>63607.335316</v>
+        <v>63607.335315999997</v>
       </c>
       <c r="V23" s="1">
-        <v>17.668704</v>
+        <v>17.668704000000002</v>
       </c>
       <c r="W23" s="1">
-        <v>1211.080000</v>
+        <v>1211.08</v>
       </c>
       <c r="X23" s="1">
-        <v>-109.189000</v>
+        <v>-109.18899999999999</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>63617.592582</v>
+        <v>63617.592581999997</v>
       </c>
       <c r="AA23" s="1">
-        <v>17.671553</v>
+        <v>17.671552999999999</v>
       </c>
       <c r="AB23" s="1">
-        <v>1218.700000</v>
+        <v>1218.7</v>
       </c>
       <c r="AC23" s="1">
-        <v>-91.811300</v>
+        <v>-91.811300000000003</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
         <v>63628.055171</v>
       </c>
       <c r="AF23" s="1">
-        <v>17.674460</v>
+        <v>17.67446</v>
       </c>
       <c r="AG23" s="1">
-        <v>1223.430000</v>
+        <v>1223.43</v>
       </c>
       <c r="AH23" s="1">
-        <v>-87.188000</v>
+        <v>-87.188000000000002</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>63638.665610</v>
+        <v>63638.665609999996</v>
       </c>
       <c r="AK23" s="1">
-        <v>17.677407</v>
+        <v>17.677406999999999</v>
       </c>
       <c r="AL23" s="1">
-        <v>1230.610000</v>
+        <v>1230.6099999999999</v>
       </c>
       <c r="AM23" s="1">
-        <v>-90.253000</v>
+        <v>-90.253</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>63649.545326</v>
+        <v>63649.545325999999</v>
       </c>
       <c r="AP23" s="1">
         <v>17.680429</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1238.630000</v>
+        <v>1238.6300000000001</v>
       </c>
       <c r="AR23" s="1">
-        <v>-102.135000</v>
+        <v>-102.13500000000001</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>63660.671085</v>
+        <v>63660.671085000002</v>
       </c>
       <c r="AU23" s="1">
-        <v>17.683520</v>
+        <v>17.683520000000001</v>
       </c>
       <c r="AV23" s="1">
-        <v>1248.680000</v>
+        <v>1248.68</v>
       </c>
       <c r="AW23" s="1">
-        <v>-121.467000</v>
+        <v>-121.467</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
         <v>63671.709552</v>
       </c>
       <c r="AZ23" s="1">
-        <v>17.686586</v>
+        <v>17.686585999999998</v>
       </c>
       <c r="BA23" s="1">
-        <v>1257.270000</v>
+        <v>1257.27</v>
       </c>
       <c r="BB23" s="1">
-        <v>-138.984000</v>
+        <v>-138.98400000000001</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>63682.703408</v>
+        <v>63682.703408000001</v>
       </c>
       <c r="BE23" s="1">
-        <v>17.689640</v>
+        <v>17.689640000000001</v>
       </c>
       <c r="BF23" s="1">
-        <v>1297.910000</v>
+        <v>1297.9100000000001</v>
       </c>
       <c r="BG23" s="1">
-        <v>-220.885000</v>
+        <v>-220.88499999999999</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>63693.984917</v>
+        <v>63693.984917000002</v>
       </c>
       <c r="BJ23" s="1">
         <v>17.692774</v>
       </c>
       <c r="BK23" s="1">
-        <v>1368.390000</v>
+        <v>1368.39</v>
       </c>
       <c r="BL23" s="1">
-        <v>-356.860000</v>
+        <v>-356.86</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>63705.299124</v>
+        <v>63705.299123999997</v>
       </c>
       <c r="BO23" s="1">
         <v>17.695916</v>
       </c>
       <c r="BP23" s="1">
-        <v>1483.840000</v>
+        <v>1483.84</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-577.540000</v>
+        <v>-577.54</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>63716.359413</v>
+        <v>63716.359412999998</v>
       </c>
       <c r="BT23" s="1">
-        <v>17.698989</v>
+        <v>17.698989000000001</v>
       </c>
       <c r="BU23" s="1">
-        <v>1616.530000</v>
+        <v>1616.53</v>
       </c>
       <c r="BV23" s="1">
-        <v>-826.169000</v>
+        <v>-826.16899999999998</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>63727.303637</v>
+        <v>63727.303636999997</v>
       </c>
       <c r="BY23" s="1">
         <v>17.702029</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1770.120000</v>
+        <v>1770.12</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1095.070000</v>
+        <v>-1095.07</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>63740.326101</v>
+        <v>63740.326100999999</v>
       </c>
       <c r="CD23" s="1">
-        <v>17.705646</v>
+        <v>17.705646000000002</v>
       </c>
       <c r="CE23" s="1">
-        <v>2190.400000</v>
+        <v>2190.4</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1743.530000</v>
+        <v>-1743.53</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>63566.908857</v>
+        <v>63566.908857000002</v>
       </c>
       <c r="B24" s="1">
-        <v>17.657475</v>
+        <v>17.657475000000002</v>
       </c>
       <c r="C24" s="1">
-        <v>1144.230000</v>
+        <v>1144.23</v>
       </c>
       <c r="D24" s="1">
-        <v>-261.044000</v>
+        <v>-261.04399999999998</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>63577.091736</v>
+        <v>63577.091736000002</v>
       </c>
       <c r="G24" s="1">
-        <v>17.660303</v>
+        <v>17.660302999999999</v>
       </c>
       <c r="H24" s="1">
-        <v>1166.570000</v>
+        <v>1166.57</v>
       </c>
       <c r="I24" s="1">
-        <v>-220.106000</v>
+        <v>-220.10599999999999</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>63587.287990</v>
+        <v>63587.287989999997</v>
       </c>
       <c r="L24" s="1">
-        <v>17.663136</v>
+        <v>17.663136000000002</v>
       </c>
       <c r="M24" s="1">
-        <v>1195.490000</v>
+        <v>1195.49</v>
       </c>
       <c r="N24" s="1">
-        <v>-152.963000</v>
+        <v>-152.96299999999999</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>63597.560129</v>
+        <v>63597.560128999998</v>
       </c>
       <c r="Q24" s="1">
         <v>17.665989</v>
       </c>
       <c r="R24" s="1">
-        <v>1203.480000</v>
+        <v>1203.48</v>
       </c>
       <c r="S24" s="1">
-        <v>-130.544000</v>
+        <v>-130.54400000000001</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>63607.678522</v>
+        <v>63607.678522000002</v>
       </c>
       <c r="V24" s="1">
-        <v>17.668800</v>
+        <v>17.668800000000001</v>
       </c>
       <c r="W24" s="1">
-        <v>1211.080000</v>
+        <v>1211.08</v>
       </c>
       <c r="X24" s="1">
-        <v>-109.359000</v>
+        <v>-109.35899999999999</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>63618.017653</v>
+        <v>63618.017653000003</v>
       </c>
       <c r="AA24" s="1">
-        <v>17.671672</v>
+        <v>17.671672000000001</v>
       </c>
       <c r="AB24" s="1">
-        <v>1218.710000</v>
+        <v>1218.71</v>
       </c>
       <c r="AC24" s="1">
-        <v>-91.848000</v>
+        <v>-91.847999999999999</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>63628.500073</v>
+        <v>63628.500073000003</v>
       </c>
       <c r="AF24" s="1">
-        <v>17.674583</v>
+        <v>17.674582999999998</v>
       </c>
       <c r="AG24" s="1">
-        <v>1223.450000</v>
+        <v>1223.45</v>
       </c>
       <c r="AH24" s="1">
-        <v>-87.121000</v>
+        <v>-87.120999999999995</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>63638.949818</v>
+        <v>63638.949818000001</v>
       </c>
       <c r="AK24" s="1">
-        <v>17.677486</v>
+        <v>17.677485999999998</v>
       </c>
       <c r="AL24" s="1">
-        <v>1230.590000</v>
+        <v>1230.5899999999999</v>
       </c>
       <c r="AM24" s="1">
-        <v>-90.254700</v>
+        <v>-90.2547</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>63649.903932</v>
+        <v>63649.903932000001</v>
       </c>
       <c r="AP24" s="1">
         <v>17.680529</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1238.610000</v>
+        <v>1238.6099999999999</v>
       </c>
       <c r="AR24" s="1">
-        <v>-102.143000</v>
+        <v>-102.143</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>63661.037133</v>
+        <v>63661.037132999998</v>
       </c>
       <c r="AU24" s="1">
-        <v>17.683621</v>
+        <v>17.683620999999999</v>
       </c>
       <c r="AV24" s="1">
-        <v>1248.710000</v>
+        <v>1248.71</v>
       </c>
       <c r="AW24" s="1">
-        <v>-121.475000</v>
+        <v>-121.47499999999999</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>63672.071135</v>
+        <v>63672.071134999998</v>
       </c>
       <c r="AZ24" s="1">
-        <v>17.686686</v>
+        <v>17.686686000000002</v>
       </c>
       <c r="BA24" s="1">
-        <v>1257.240000</v>
+        <v>1257.24</v>
       </c>
       <c r="BB24" s="1">
-        <v>-138.974000</v>
+        <v>-138.97399999999999</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
         <v>63683.425056</v>
       </c>
       <c r="BE24" s="1">
-        <v>17.689840</v>
+        <v>17.68984</v>
       </c>
       <c r="BF24" s="1">
-        <v>1297.920000</v>
+        <v>1297.92</v>
       </c>
       <c r="BG24" s="1">
-        <v>-220.898000</v>
+        <v>-220.898</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
         <v>63694.739792</v>
       </c>
       <c r="BJ24" s="1">
-        <v>17.692983</v>
+        <v>17.692983000000002</v>
       </c>
       <c r="BK24" s="1">
-        <v>1368.380000</v>
+        <v>1368.38</v>
       </c>
       <c r="BL24" s="1">
-        <v>-356.841000</v>
+        <v>-356.84100000000001</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
         <v>63705.684018</v>
@@ -6330,120 +6746,120 @@
         <v>17.696023</v>
       </c>
       <c r="BP24" s="1">
-        <v>1483.820000</v>
+        <v>1483.82</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-577.543000</v>
+        <v>-577.54300000000001</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>63716.773603</v>
+        <v>63716.773603000001</v>
       </c>
       <c r="BT24" s="1">
-        <v>17.699104</v>
+        <v>17.699103999999998</v>
       </c>
       <c r="BU24" s="1">
-        <v>1616.470000</v>
+        <v>1616.47</v>
       </c>
       <c r="BV24" s="1">
-        <v>-826.158000</v>
+        <v>-826.15800000000002</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
         <v>63727.726229</v>
       </c>
       <c r="BY24" s="1">
-        <v>17.702146</v>
+        <v>17.702145999999999</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1770.190000</v>
+        <v>1770.19</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1094.980000</v>
+        <v>-1094.98</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>63741.177262</v>
+        <v>63741.177261999997</v>
       </c>
       <c r="CD24" s="1">
         <v>17.705883</v>
       </c>
       <c r="CE24" s="1">
-        <v>2188.770000</v>
+        <v>2188.77</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1745.240000</v>
+        <v>-1745.24</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>63567.258071</v>
+        <v>63567.258070999997</v>
       </c>
       <c r="B25" s="1">
-        <v>17.657572</v>
+        <v>17.657571999999998</v>
       </c>
       <c r="C25" s="1">
-        <v>1144.480000</v>
+        <v>1144.48</v>
       </c>
       <c r="D25" s="1">
-        <v>-261.601000</v>
+        <v>-261.601</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>63577.439947</v>
+        <v>63577.439946999999</v>
       </c>
       <c r="G25" s="1">
-        <v>17.660400</v>
+        <v>17.660399999999999</v>
       </c>
       <c r="H25" s="1">
-        <v>1166.580000</v>
+        <v>1166.58</v>
       </c>
       <c r="I25" s="1">
-        <v>-220.066000</v>
+        <v>-220.066</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>63587.637662</v>
+        <v>63587.637662000001</v>
       </c>
       <c r="L25" s="1">
-        <v>17.663233</v>
+        <v>17.663233000000002</v>
       </c>
       <c r="M25" s="1">
-        <v>1195.500000</v>
+        <v>1195.5</v>
       </c>
       <c r="N25" s="1">
-        <v>-153.008000</v>
+        <v>-153.00800000000001</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>63597.977266</v>
+        <v>63597.977266000002</v>
       </c>
       <c r="Q25" s="1">
-        <v>17.666105</v>
+        <v>17.666105000000002</v>
       </c>
       <c r="R25" s="1">
-        <v>1203.450000</v>
+        <v>1203.45</v>
       </c>
       <c r="S25" s="1">
-        <v>-130.546000</v>
+        <v>-130.54599999999999</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
         <v>63608.102131</v>
@@ -6452,13 +6868,13 @@
         <v>17.668917</v>
       </c>
       <c r="W25" s="1">
-        <v>1211.130000</v>
+        <v>1211.1300000000001</v>
       </c>
       <c r="X25" s="1">
-        <v>-109.369000</v>
+        <v>-109.369</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
         <v>63618.301861</v>
@@ -6467,225 +6883,225 @@
         <v>17.671751</v>
       </c>
       <c r="AB25" s="1">
-        <v>1218.800000</v>
+        <v>1218.8</v>
       </c>
       <c r="AC25" s="1">
-        <v>-91.845000</v>
+        <v>-91.844999999999999</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>63628.754521</v>
+        <v>63628.754521000003</v>
       </c>
       <c r="AF25" s="1">
         <v>17.674654</v>
       </c>
       <c r="AG25" s="1">
-        <v>1223.490000</v>
+        <v>1223.49</v>
       </c>
       <c r="AH25" s="1">
-        <v>-87.167500</v>
+        <v>-87.167500000000004</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>63639.296491</v>
+        <v>63639.296491000001</v>
       </c>
       <c r="AK25" s="1">
-        <v>17.677582</v>
+        <v>17.677582000000001</v>
       </c>
       <c r="AL25" s="1">
-        <v>1230.610000</v>
+        <v>1230.6099999999999</v>
       </c>
       <c r="AM25" s="1">
-        <v>-90.253300</v>
+        <v>-90.253299999999996</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>63650.265019</v>
+        <v>63650.265018999999</v>
       </c>
       <c r="AP25" s="1">
         <v>17.680629</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1238.600000</v>
+        <v>1238.5999999999999</v>
       </c>
       <c r="AR25" s="1">
-        <v>-102.141000</v>
+        <v>-102.14100000000001</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>63661.397725</v>
+        <v>63661.397725000003</v>
       </c>
       <c r="AU25" s="1">
-        <v>17.683722</v>
+        <v>17.683721999999999</v>
       </c>
       <c r="AV25" s="1">
-        <v>1248.690000</v>
+        <v>1248.69</v>
       </c>
       <c r="AW25" s="1">
-        <v>-121.477000</v>
+        <v>-121.477</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>63672.788350</v>
+        <v>63672.788350000003</v>
       </c>
       <c r="AZ25" s="1">
-        <v>17.686886</v>
+        <v>17.686886000000001</v>
       </c>
       <c r="BA25" s="1">
-        <v>1257.230000</v>
+        <v>1257.23</v>
       </c>
       <c r="BB25" s="1">
-        <v>-138.981000</v>
+        <v>-138.98099999999999</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>63683.786640</v>
+        <v>63683.786639999998</v>
       </c>
       <c r="BE25" s="1">
-        <v>17.689941</v>
+        <v>17.689941000000001</v>
       </c>
       <c r="BF25" s="1">
-        <v>1297.920000</v>
+        <v>1297.92</v>
       </c>
       <c r="BG25" s="1">
-        <v>-220.898000</v>
+        <v>-220.898</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>63695.112816</v>
+        <v>63695.112816000001</v>
       </c>
       <c r="BJ25" s="1">
-        <v>17.693087</v>
+        <v>17.693086999999998</v>
       </c>
       <c r="BK25" s="1">
-        <v>1368.300000</v>
+        <v>1368.3</v>
       </c>
       <c r="BL25" s="1">
-        <v>-356.887000</v>
+        <v>-356.887</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>63706.102180</v>
+        <v>63706.102180000002</v>
       </c>
       <c r="BO25" s="1">
-        <v>17.696139</v>
+        <v>17.696138999999999</v>
       </c>
       <c r="BP25" s="1">
-        <v>1483.810000</v>
+        <v>1483.81</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-577.490000</v>
+        <v>-577.49</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>63717.527490</v>
+        <v>63717.52749</v>
       </c>
       <c r="BT25" s="1">
         <v>17.699313</v>
       </c>
       <c r="BU25" s="1">
-        <v>1616.500000</v>
+        <v>1616.5</v>
       </c>
       <c r="BV25" s="1">
-        <v>-826.140000</v>
+        <v>-826.14</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>63728.467748</v>
+        <v>63728.467748000003</v>
       </c>
       <c r="BY25" s="1">
-        <v>17.702352</v>
+        <v>17.702352000000001</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1770.220000</v>
+        <v>1770.22</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1095.010000</v>
+        <v>-1095.01</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
         <v>63741.404403</v>
       </c>
       <c r="CD25" s="1">
-        <v>17.705946</v>
+        <v>17.705946000000001</v>
       </c>
       <c r="CE25" s="1">
-        <v>2188.510000</v>
+        <v>2188.5100000000002</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1745.540000</v>
+        <v>-1745.54</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>63567.602300</v>
+        <v>63567.602299999999</v>
       </c>
       <c r="B26" s="1">
         <v>17.657667</v>
       </c>
       <c r="C26" s="1">
-        <v>1144.350000</v>
+        <v>1144.3499999999999</v>
       </c>
       <c r="D26" s="1">
-        <v>-261.363000</v>
+        <v>-261.363</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>63577.783179</v>
+        <v>63577.783178999998</v>
       </c>
       <c r="G26" s="1">
-        <v>17.660495</v>
+        <v>17.660495000000001</v>
       </c>
       <c r="H26" s="1">
-        <v>1166.820000</v>
+        <v>1166.82</v>
       </c>
       <c r="I26" s="1">
-        <v>-219.602000</v>
+        <v>-219.602</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
         <v>63588.050335</v>
       </c>
       <c r="L26" s="1">
-        <v>17.663347</v>
+        <v>17.663347000000002</v>
       </c>
       <c r="M26" s="1">
-        <v>1195.350000</v>
+        <v>1195.3499999999999</v>
       </c>
       <c r="N26" s="1">
-        <v>-152.996000</v>
+        <v>-152.99600000000001</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
         <v>63598.268912</v>
@@ -6694,58 +7110,58 @@
         <v>17.666186</v>
       </c>
       <c r="R26" s="1">
-        <v>1203.530000</v>
+        <v>1203.53</v>
       </c>
       <c r="S26" s="1">
-        <v>-130.491000</v>
+        <v>-130.49100000000001</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>63608.377906</v>
+        <v>63608.377906000002</v>
       </c>
       <c r="V26" s="1">
-        <v>17.668994</v>
+        <v>17.668994000000001</v>
       </c>
       <c r="W26" s="1">
-        <v>1211.200000</v>
+        <v>1211.2</v>
       </c>
       <c r="X26" s="1">
-        <v>-109.286000</v>
+        <v>-109.286</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>63618.648565</v>
+        <v>63618.648565000003</v>
       </c>
       <c r="AA26" s="1">
         <v>17.671847</v>
       </c>
       <c r="AB26" s="1">
-        <v>1218.740000</v>
+        <v>1218.74</v>
       </c>
       <c r="AC26" s="1">
-        <v>-91.729600</v>
+        <v>-91.729600000000005</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>63629.097789</v>
+        <v>63629.097788999999</v>
       </c>
       <c r="AF26" s="1">
-        <v>17.674749</v>
+        <v>17.674748999999998</v>
       </c>
       <c r="AG26" s="1">
-        <v>1223.390000</v>
+        <v>1223.3900000000001</v>
       </c>
       <c r="AH26" s="1">
-        <v>-87.012000</v>
+        <v>-87.012</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
         <v>63639.642216</v>
@@ -6754,150 +7170,151 @@
         <v>17.677678</v>
       </c>
       <c r="AL26" s="1">
-        <v>1230.610000</v>
+        <v>1230.6099999999999</v>
       </c>
       <c r="AM26" s="1">
-        <v>-90.259900</v>
+        <v>-90.259900000000002</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>63650.992172</v>
+        <v>63650.992171999998</v>
       </c>
       <c r="AP26" s="1">
-        <v>17.680831</v>
+        <v>17.680831000000001</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1238.600000</v>
+        <v>1238.5999999999999</v>
       </c>
       <c r="AR26" s="1">
-        <v>-102.147000</v>
+        <v>-102.14700000000001</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>63662.130316</v>
+        <v>63662.130316000002</v>
       </c>
       <c r="AU26" s="1">
-        <v>17.683925</v>
+        <v>17.683924999999999</v>
       </c>
       <c r="AV26" s="1">
-        <v>1248.690000</v>
+        <v>1248.69</v>
       </c>
       <c r="AW26" s="1">
-        <v>-121.487000</v>
+        <v>-121.48699999999999</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>63673.144973</v>
+        <v>63673.144973000002</v>
       </c>
       <c r="AZ26" s="1">
         <v>17.686985</v>
       </c>
       <c r="BA26" s="1">
-        <v>1257.250000</v>
+        <v>1257.25</v>
       </c>
       <c r="BB26" s="1">
-        <v>-139.005000</v>
+        <v>-139.005</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>63684.146734</v>
+        <v>63684.146734000002</v>
       </c>
       <c r="BE26" s="1">
-        <v>17.690041</v>
+        <v>17.690041000000001</v>
       </c>
       <c r="BF26" s="1">
-        <v>1297.890000</v>
+        <v>1297.8900000000001</v>
       </c>
       <c r="BG26" s="1">
-        <v>-220.926000</v>
+        <v>-220.92599999999999</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>63695.488125</v>
+        <v>63695.488125000003</v>
       </c>
       <c r="BJ26" s="1">
-        <v>17.693191</v>
+        <v>17.693190999999999</v>
       </c>
       <c r="BK26" s="1">
-        <v>1368.380000</v>
+        <v>1368.38</v>
       </c>
       <c r="BL26" s="1">
-        <v>-356.866000</v>
+        <v>-356.86599999999999</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>63706.820480</v>
+        <v>63706.820480000002</v>
       </c>
       <c r="BO26" s="1">
-        <v>17.696339</v>
+        <v>17.696338999999998</v>
       </c>
       <c r="BP26" s="1">
-        <v>1483.830000</v>
+        <v>1483.83</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-577.570000</v>
+        <v>-577.57000000000005</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>63717.636315</v>
+        <v>63717.636315000003</v>
       </c>
       <c r="BT26" s="1">
-        <v>17.699343</v>
+        <v>17.699342999999999</v>
       </c>
       <c r="BU26" s="1">
-        <v>1616.450000</v>
+        <v>1616.45</v>
       </c>
       <c r="BV26" s="1">
-        <v>-825.960000</v>
+        <v>-825.96</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
         <v>63728.630932</v>
       </c>
       <c r="BY26" s="1">
-        <v>17.702397</v>
+        <v>17.702397000000001</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1770.130000</v>
+        <v>1770.13</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1095.040000</v>
+        <v>-1095.04</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>63741.922724</v>
+        <v>63741.922723999996</v>
       </c>
       <c r="CD26" s="1">
-        <v>17.706090</v>
+        <v>17.70609</v>
       </c>
       <c r="CE26" s="1">
-        <v>2190.460000</v>
+        <v>2190.46</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1744.510000</v>
+        <v>-1744.51</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>